--- a/Data/Estimated Methane Emissions Data.xlsx
+++ b/Data/Estimated Methane Emissions Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fida paper 2\Fida Paper 2 JESS\Manuscript\Manuscript V15\Setting-up-Methane-Mitigation-Measures-for-Indian-Rice-Fields\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC377E4-4906-4F71-9C92-377184FB16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0456A-387B-4350-89B7-D7636A8670AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="12">
   <si>
     <t>Total Emissions</t>
   </si>
@@ -68,31 +68,7 @@
     <t>% uncertainity in CH4 emissions</t>
   </si>
   <si>
-    <r>
-      <t>CH4 emissions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Upper Bound (Tg)</t>
-    </r>
-  </si>
-  <si>
-    <t>Table S3: National scale CH4 emissions with uncertainties from monte carlo simulation</t>
+    <t>CH4 emissions Upper Bound (Tg)</t>
   </si>
 </sst>
 </file>
@@ -961,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,6280 +948,6267 @@
     <col min="1" max="6" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1966</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.411121654</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.7402847170000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.0671582879999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8.7698756000000007</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3.411121654</v>
+        <v>3.5260670279999999</v>
       </c>
       <c r="D3" s="3">
-        <v>3.7402847170000002</v>
+        <v>3.857202064</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0671582879999999</v>
+        <v>4.1907750630000002</v>
       </c>
       <c r="F3" s="3">
-        <v>8.7698756000000007</v>
+        <v>8.6164533720000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3.5260670279999999</v>
+        <v>3.4917877590000002</v>
       </c>
       <c r="D4" s="3">
-        <v>3.857202064</v>
+        <v>3.8181203670000001</v>
       </c>
       <c r="E4" s="3">
-        <v>4.1907750630000002</v>
+        <v>4.152600209</v>
       </c>
       <c r="F4" s="3">
-        <v>8.6164533720000005</v>
+        <v>8.6536356429999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>3.4917877590000002</v>
+        <v>3.6198244119999998</v>
       </c>
       <c r="D5" s="3">
-        <v>3.8181203670000001</v>
+        <v>3.96010383</v>
       </c>
       <c r="E5" s="3">
-        <v>4.152600209</v>
+        <v>4.3085546780000001</v>
       </c>
       <c r="F5" s="3">
-        <v>8.6536356429999994</v>
+        <v>8.6958612130000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3.6198244119999998</v>
+        <v>3.6028886419999999</v>
       </c>
       <c r="D6" s="3">
-        <v>3.96010383</v>
+        <v>3.9519705150000002</v>
       </c>
       <c r="E6" s="3">
-        <v>4.3085546780000001</v>
+        <v>4.2868189130000003</v>
       </c>
       <c r="F6" s="3">
-        <v>8.6958612130000006</v>
+        <v>8.6530285169999992</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>3.6028886419999999</v>
+        <v>3.675128935</v>
       </c>
       <c r="D7" s="3">
-        <v>3.9519705150000002</v>
+        <v>4.01719589</v>
       </c>
       <c r="E7" s="3">
-        <v>4.2868189130000003</v>
+        <v>4.3594400860000002</v>
       </c>
       <c r="F7" s="3">
-        <v>8.6530285169999992</v>
+        <v>8.5172738649999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3.675128935</v>
+        <v>3.595003964</v>
       </c>
       <c r="D8" s="3">
-        <v>4.01719589</v>
+        <v>3.9184001460000002</v>
       </c>
       <c r="E8" s="3">
-        <v>4.3594400860000002</v>
+        <v>4.2637275590000003</v>
       </c>
       <c r="F8" s="3">
-        <v>8.5172738649999999</v>
+        <v>8.5331202729999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>3.595003964</v>
+        <v>3.7153154640000001</v>
       </c>
       <c r="D9" s="3">
-        <v>3.9184001460000002</v>
+        <v>4.0646493970000002</v>
       </c>
       <c r="E9" s="3">
-        <v>4.2637275590000003</v>
+        <v>4.405797626</v>
       </c>
       <c r="F9" s="3">
-        <v>8.5331202729999998</v>
+        <v>8.4937480999999995</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>3.7153154640000001</v>
+        <v>3.6797470940000001</v>
       </c>
       <c r="D10" s="3">
-        <v>4.0646493970000002</v>
+        <v>4.0372204719999996</v>
       </c>
       <c r="E10" s="3">
-        <v>4.405797626</v>
+        <v>4.3959374410000001</v>
       </c>
       <c r="F10" s="3">
-        <v>8.4937480999999995</v>
+        <v>8.8698443870000006</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>3.6797470940000001</v>
+        <v>3.8336082180000002</v>
       </c>
       <c r="D11" s="3">
-        <v>4.0372204719999996</v>
+        <v>4.2098310459999997</v>
       </c>
       <c r="E11" s="3">
-        <v>4.3959374410000001</v>
+        <v>4.5756234149999999</v>
       </c>
       <c r="F11" s="3">
-        <v>8.8698443870000006</v>
+        <v>8.8128857039999993</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>3.8336082180000002</v>
+        <v>3.7626022450000001</v>
       </c>
       <c r="D12" s="3">
-        <v>4.2098310459999997</v>
+        <v>4.1102540330000004</v>
       </c>
       <c r="E12" s="3">
-        <v>4.5756234149999999</v>
+        <v>4.4697735520000004</v>
       </c>
       <c r="F12" s="3">
-        <v>8.8128857039999993</v>
+        <v>8.6025255559999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>3.7626022450000001</v>
+        <v>3.9487376410000001</v>
       </c>
       <c r="D13" s="3">
-        <v>4.1102540330000004</v>
+        <v>4.3162400310000004</v>
       </c>
       <c r="E13" s="3">
-        <v>4.4697735520000004</v>
+        <v>4.6879966819999996</v>
       </c>
       <c r="F13" s="3">
-        <v>8.6025255559999998</v>
+        <v>8.5636924269999994</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>3.9487376410000001</v>
+        <v>4.0134057470000002</v>
       </c>
       <c r="D14" s="3">
-        <v>4.3162400310000004</v>
+        <v>4.3763330109999998</v>
       </c>
       <c r="E14" s="3">
-        <v>4.6879966819999996</v>
+        <v>4.7569288639999998</v>
       </c>
       <c r="F14" s="3">
-        <v>8.5636924269999994</v>
+        <v>8.4948187809999993</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>4.0134057470000002</v>
+        <v>3.885724438</v>
       </c>
       <c r="D15" s="3">
-        <v>4.3763330109999998</v>
+        <v>4.2307000019999998</v>
       </c>
       <c r="E15" s="3">
-        <v>4.7569288639999998</v>
+        <v>4.5957278119999998</v>
       </c>
       <c r="F15" s="3">
-        <v>8.4948187809999993</v>
+        <v>8.391086263</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>3.885724438</v>
+        <v>3.9549871740000002</v>
       </c>
       <c r="D16" s="3">
-        <v>4.2307000019999998</v>
+        <v>4.3157782019999997</v>
       </c>
       <c r="E16" s="3">
-        <v>4.5957278119999998</v>
+        <v>4.6840041389999998</v>
       </c>
       <c r="F16" s="3">
-        <v>8.391086263</v>
+        <v>8.4459503169999994</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>3.9549871740000002</v>
+        <v>4.0197567540000003</v>
       </c>
       <c r="D17" s="3">
-        <v>4.3157782019999997</v>
+        <v>4.3832030550000001</v>
       </c>
       <c r="E17" s="3">
-        <v>4.6840041389999998</v>
+        <v>4.7575419659999998</v>
       </c>
       <c r="F17" s="3">
-        <v>8.4459503169999994</v>
+        <v>8.4160510389999992</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>4.0197567540000003</v>
+        <v>3.6538219590000001</v>
       </c>
       <c r="D18" s="3">
-        <v>4.3832030550000001</v>
+        <v>4.0026527190000003</v>
       </c>
       <c r="E18" s="3">
-        <v>4.7575419659999998</v>
+        <v>4.3561093709999996</v>
       </c>
       <c r="F18" s="3">
-        <v>8.4160510389999992</v>
+        <v>8.7727747239999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>3.6538219590000001</v>
+        <v>4.0505950720000001</v>
       </c>
       <c r="D19" s="3">
-        <v>4.0026527190000003</v>
+        <v>4.4234840340000003</v>
       </c>
       <c r="E19" s="3">
-        <v>4.3561093709999996</v>
+        <v>4.8120587610000003</v>
       </c>
       <c r="F19" s="3">
-        <v>8.7727747239999996</v>
+        <v>8.6070581780000008</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>4.0505950720000001</v>
+        <v>4.0622865360000002</v>
       </c>
       <c r="D20" s="3">
-        <v>4.4234840340000003</v>
+        <v>4.4289549480000003</v>
       </c>
       <c r="E20" s="3">
-        <v>4.8120587610000003</v>
+        <v>4.8123036350000001</v>
       </c>
       <c r="F20" s="3">
-        <v>8.6070581780000008</v>
+        <v>8.4672017159999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>4.0622865360000002</v>
+        <v>4.0437586870000004</v>
       </c>
       <c r="D21" s="3">
-        <v>4.4289549480000003</v>
+        <v>4.4200674539999998</v>
       </c>
       <c r="E21" s="3">
-        <v>4.8123036350000001</v>
+        <v>4.7978590890000001</v>
       </c>
       <c r="F21" s="3">
-        <v>8.4672017159999999</v>
+        <v>8.5304173460000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>4.0437586870000004</v>
+        <v>4.0276003449999997</v>
       </c>
       <c r="D22" s="3">
-        <v>4.4200674539999998</v>
+        <v>4.3982671230000001</v>
       </c>
       <c r="E22" s="3">
-        <v>4.7978590890000001</v>
+        <v>4.7873327159999999</v>
       </c>
       <c r="F22" s="3">
-        <v>8.5304173460000001</v>
+        <v>8.6367238450000006</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>4.0276003449999997</v>
+        <v>3.7675027289999998</v>
       </c>
       <c r="D23" s="3">
-        <v>4.3982671230000001</v>
+        <v>4.1395891880000004</v>
       </c>
       <c r="E23" s="3">
-        <v>4.7873327159999999</v>
+        <v>4.5126579419999997</v>
       </c>
       <c r="F23" s="3">
-        <v>8.6367238450000006</v>
+        <v>9.0003521959999997</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>3.7675027289999998</v>
+        <v>4.1473015770000003</v>
       </c>
       <c r="D24" s="3">
-        <v>4.1395891880000004</v>
+        <v>4.5379586999999999</v>
       </c>
       <c r="E24" s="3">
-        <v>4.5126579419999997</v>
+        <v>4.9273360259999999</v>
       </c>
       <c r="F24" s="3">
-        <v>9.0003521959999997</v>
+        <v>8.5945520999999996</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>4.1473015770000003</v>
+        <v>4.2669172389999996</v>
       </c>
       <c r="D25" s="3">
-        <v>4.5379586999999999</v>
+        <v>4.6751301759999997</v>
       </c>
       <c r="E25" s="3">
-        <v>4.9273360259999999</v>
+        <v>5.0929863949999996</v>
       </c>
       <c r="F25" s="3">
-        <v>8.5945520999999996</v>
+        <v>8.8347182380000007</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>4.2669172389999996</v>
+        <v>4.2471640710000003</v>
       </c>
       <c r="D26" s="3">
-        <v>4.6751301759999997</v>
+        <v>4.6379279440000003</v>
       </c>
       <c r="E26" s="3">
-        <v>5.0929863949999996</v>
+        <v>5.0316401969999998</v>
       </c>
       <c r="F26" s="3">
-        <v>8.8347182380000007</v>
+        <v>8.4571832100000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <v>4.2471640710000003</v>
+        <v>4.242846278</v>
       </c>
       <c r="D27" s="3">
-        <v>4.6379279440000003</v>
+        <v>4.6385692619999999</v>
       </c>
       <c r="E27" s="3">
-        <v>5.0316401969999998</v>
+        <v>5.0338481540000002</v>
       </c>
       <c r="F27" s="3">
-        <v>8.4571832100000002</v>
+        <v>8.5263562030000006</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>4.242846278</v>
+        <v>4.1409502030000001</v>
       </c>
       <c r="D28" s="3">
-        <v>4.6385692619999999</v>
+        <v>4.534243751</v>
       </c>
       <c r="E28" s="3">
-        <v>5.0338481540000002</v>
+        <v>4.9290059949999998</v>
       </c>
       <c r="F28" s="3">
-        <v>8.5263562030000006</v>
+        <v>8.6900466210000005</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>4.1409502030000001</v>
+        <v>4.2287577020000002</v>
       </c>
       <c r="D29" s="3">
-        <v>4.534243751</v>
+        <v>4.6225981919999999</v>
       </c>
       <c r="E29" s="3">
-        <v>4.9290059949999998</v>
+        <v>5.0343937170000004</v>
       </c>
       <c r="F29" s="3">
-        <v>8.6900466210000005</v>
+        <v>8.714103862</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>4.2287577020000002</v>
+        <v>4.2558494969999998</v>
       </c>
       <c r="D30" s="3">
-        <v>4.6225981919999999</v>
+        <v>4.6574544659999999</v>
       </c>
       <c r="E30" s="3">
-        <v>5.0343937170000004</v>
+        <v>5.0645899070000002</v>
       </c>
       <c r="F30" s="3">
-        <v>8.714103862</v>
+        <v>8.6822148820000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="3">
-        <v>4.2558494969999998</v>
+        <v>4.2087564229999996</v>
       </c>
       <c r="D31" s="3">
-        <v>4.6574544659999999</v>
+        <v>4.6079435880000004</v>
       </c>
       <c r="E31" s="3">
-        <v>5.0645899070000002</v>
+        <v>5.023861803</v>
       </c>
       <c r="F31" s="3">
-        <v>8.6822148820000002</v>
+        <v>8.8445677000000007</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>4.2087564229999996</v>
+        <v>4.2295768230000004</v>
       </c>
       <c r="D32" s="3">
-        <v>4.6079435880000004</v>
+        <v>4.6420121529999996</v>
       </c>
       <c r="E32" s="3">
-        <v>5.023861803</v>
+        <v>5.0557200279999996</v>
       </c>
       <c r="F32" s="3">
-        <v>8.8445677000000007</v>
+        <v>8.8985463429999996</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3">
-        <v>4.2295768230000004</v>
+        <v>4.3368940379999996</v>
       </c>
       <c r="D33" s="3">
-        <v>4.6420121529999996</v>
+        <v>4.7385513609999999</v>
       </c>
       <c r="E33" s="3">
-        <v>5.0557200279999996</v>
+        <v>5.1430328469999997</v>
       </c>
       <c r="F33" s="3">
-        <v>8.8985463429999996</v>
+        <v>8.5061735879999993</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>4.3368940379999996</v>
+        <v>4.3798721699999996</v>
       </c>
       <c r="D34" s="3">
-        <v>4.7385513609999999</v>
+        <v>4.8065610379999999</v>
       </c>
       <c r="E34" s="3">
-        <v>5.1430328469999997</v>
+        <v>5.2325041289999996</v>
       </c>
       <c r="F34" s="3">
-        <v>8.5061735879999993</v>
+        <v>8.8694593899999994</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>4.3798721699999996</v>
+        <v>4.3387147659999998</v>
       </c>
       <c r="D35" s="3">
-        <v>4.8065610379999999</v>
+        <v>4.7670456889999997</v>
       </c>
       <c r="E35" s="3">
-        <v>5.2325041289999996</v>
+        <v>5.1963523939999998</v>
       </c>
       <c r="F35" s="3">
-        <v>8.8694593899999994</v>
+        <v>8.9954836149999995</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>4.3387147659999998</v>
+        <v>4.4756918639999999</v>
       </c>
       <c r="D36" s="3">
-        <v>4.7670456889999997</v>
+        <v>4.8983202849999996</v>
       </c>
       <c r="E36" s="3">
-        <v>5.1963523939999998</v>
+        <v>5.330859137</v>
       </c>
       <c r="F36" s="3">
-        <v>8.9954836149999995</v>
+        <v>8.7291890179999996</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <v>4.4756918639999999</v>
+        <v>4.4745158199999997</v>
       </c>
       <c r="D37" s="3">
-        <v>4.8983202849999996</v>
+        <v>4.8869224100000004</v>
       </c>
       <c r="E37" s="3">
-        <v>5.330859137</v>
+        <v>5.2996670000000003</v>
       </c>
       <c r="F37" s="3">
-        <v>8.7291890179999996</v>
+        <v>8.4424419939999993</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>4.4745158199999997</v>
+        <v>4.0800933920000002</v>
       </c>
       <c r="D38" s="3">
-        <v>4.8869224100000004</v>
+        <v>4.460687203</v>
       </c>
       <c r="E38" s="3">
-        <v>5.2996670000000003</v>
+        <v>4.8608571899999999</v>
       </c>
       <c r="F38" s="3">
-        <v>8.4424419939999993</v>
+        <v>8.7516089200000007</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>4.0800933920000002</v>
+        <v>4.2203125229999996</v>
       </c>
       <c r="D39" s="3">
-        <v>4.460687203</v>
+        <v>4.6054894859999997</v>
       </c>
       <c r="E39" s="3">
-        <v>4.8608571899999999</v>
+        <v>5.0061435149999998</v>
       </c>
       <c r="F39" s="3">
-        <v>8.7516089200000007</v>
+        <v>8.5314600580000004</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>4.2203125229999996</v>
+        <v>4.1556784569999996</v>
       </c>
       <c r="D40" s="3">
-        <v>4.6054894859999997</v>
+        <v>4.5526817099999999</v>
       </c>
       <c r="E40" s="3">
-        <v>5.0061435149999998</v>
+        <v>4.9472872959999998</v>
       </c>
       <c r="F40" s="3">
-        <v>8.5314600580000004</v>
+        <v>8.6938741759999996</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>4.1556784569999996</v>
+        <v>4.3601421230000001</v>
       </c>
       <c r="D41" s="3">
-        <v>4.5526817099999999</v>
+        <v>4.7857134950000004</v>
       </c>
       <c r="E41" s="3">
-        <v>4.9472872959999998</v>
+        <v>5.1927468299999999</v>
       </c>
       <c r="F41" s="3">
-        <v>8.6938741759999996</v>
+        <v>8.6988565760000007</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>4.3601421230000001</v>
+        <v>4.3062558449999999</v>
       </c>
       <c r="D42" s="3">
-        <v>4.7857134950000004</v>
+        <v>4.7262181950000004</v>
       </c>
       <c r="E42" s="3">
-        <v>5.1927468299999999</v>
+        <v>5.1458742370000001</v>
       </c>
       <c r="F42" s="3">
-        <v>8.6988565760000007</v>
+        <v>8.8825606130000008</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>4.3062558449999999</v>
+        <v>4.3400902410000004</v>
       </c>
       <c r="D43" s="3">
-        <v>4.7262181950000004</v>
+        <v>4.7611567409999997</v>
       </c>
       <c r="E43" s="3">
-        <v>5.1458742370000001</v>
+        <v>5.1897163749999997</v>
       </c>
       <c r="F43" s="3">
-        <v>8.8825606130000008</v>
+        <v>8.9224759870000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>4.3400902410000004</v>
+        <v>4.4854245820000003</v>
       </c>
       <c r="D44" s="3">
-        <v>4.7611567409999997</v>
+        <v>4.9227031449999998</v>
       </c>
       <c r="E44" s="3">
-        <v>5.1897163749999997</v>
+        <v>5.3545186029999998</v>
       </c>
       <c r="F44" s="3">
-        <v>8.9224759870000003</v>
+        <v>8.8274063559999991</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>4.4854245820000003</v>
+        <v>4.2444769969999996</v>
       </c>
       <c r="D45" s="3">
-        <v>4.9227031449999998</v>
+        <v>4.6540031510000004</v>
       </c>
       <c r="E45" s="3">
-        <v>5.3545186029999998</v>
+        <v>5.0662202799999996</v>
       </c>
       <c r="F45" s="3">
-        <v>8.8274063559999991</v>
+        <v>8.8283490209999993</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>4.2444769969999996</v>
+        <v>4.3000223340000003</v>
       </c>
       <c r="D46" s="3">
-        <v>4.6540031510000004</v>
+        <v>4.7217021939999997</v>
       </c>
       <c r="E46" s="3">
-        <v>5.0662202799999996</v>
+        <v>5.1560125929999998</v>
       </c>
       <c r="F46" s="3">
-        <v>8.8283490209999993</v>
+        <v>9.0644244819999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <v>4.3000223340000003</v>
+        <v>4.34508049</v>
       </c>
       <c r="D47" s="3">
-        <v>4.7217021939999997</v>
+        <v>4.7498434339999998</v>
       </c>
       <c r="E47" s="3">
-        <v>5.1560125929999998</v>
+        <v>5.1682558519999997</v>
       </c>
       <c r="F47" s="3">
-        <v>9.0644244819999997</v>
+        <v>8.6652894319999998</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>4.34508049</v>
+        <v>4.1718746260000001</v>
       </c>
       <c r="D48" s="3">
-        <v>4.7498434339999998</v>
+        <v>4.5827779</v>
       </c>
       <c r="E48" s="3">
-        <v>5.1682558519999997</v>
+        <v>4.9952687500000001</v>
       </c>
       <c r="F48" s="3">
-        <v>8.6652894319999998</v>
+        <v>8.9835700260000007</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>4.1718746260000001</v>
+        <v>4.423793173</v>
       </c>
       <c r="D49" s="3">
-        <v>4.5827779</v>
+        <v>4.8504006830000002</v>
       </c>
       <c r="E49" s="3">
-        <v>4.9952687500000001</v>
+        <v>5.2930954630000002</v>
       </c>
       <c r="F49" s="3">
-        <v>8.9835700260000007</v>
+        <v>8.9611389470000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="3">
-        <v>4.423793173</v>
+        <v>4.3651648500000002</v>
       </c>
       <c r="D50" s="3">
-        <v>4.8504006830000002</v>
+        <v>4.7781473180000003</v>
       </c>
       <c r="E50" s="3">
-        <v>5.2930954630000002</v>
+        <v>5.2028715170000002</v>
       </c>
       <c r="F50" s="3">
-        <v>8.9611389470000002</v>
+        <v>8.7660196589999995</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <v>4.3651648500000002</v>
+        <v>4.2916577040000004</v>
       </c>
       <c r="D51" s="3">
-        <v>4.7781473180000003</v>
+        <v>4.7004617340000001</v>
       </c>
       <c r="E51" s="3">
-        <v>5.2028715170000002</v>
+        <v>5.1170120280000004</v>
       </c>
       <c r="F51" s="3">
-        <v>8.7660196589999995</v>
+        <v>8.7795026370000002</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="3">
-        <v>4.2916577040000004</v>
+        <v>4.419442568</v>
       </c>
       <c r="D52" s="3">
-        <v>4.7004617340000001</v>
+        <v>4.837991895</v>
       </c>
       <c r="E52" s="3">
-        <v>5.1170120280000004</v>
+        <v>5.2522507120000004</v>
       </c>
       <c r="F52" s="3">
-        <v>8.7795026370000002</v>
+        <v>8.6069609249999992</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="3">
-        <v>4.419442568</v>
+        <v>4.3950323830000002</v>
       </c>
       <c r="D53" s="3">
-        <v>4.837991895</v>
+        <v>4.8241905530000002</v>
       </c>
       <c r="E53" s="3">
-        <v>5.2522507120000004</v>
+        <v>5.250390297</v>
       </c>
       <c r="F53" s="3">
-        <v>8.6069609249999992</v>
+        <v>8.8652998350000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>4.3950323830000002</v>
+        <v>0.85907006669999997</v>
       </c>
       <c r="D54" s="3">
-        <v>4.8241905530000002</v>
+        <v>1.071246176</v>
       </c>
       <c r="E54" s="3">
-        <v>5.250390297</v>
+        <v>1.2869758200000001</v>
       </c>
       <c r="F54" s="3">
-        <v>8.8652998350000001</v>
+        <v>19.972335139999998</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="3">
-        <v>0.85907006669999997</v>
+        <v>0.87544312300000005</v>
       </c>
       <c r="D55" s="3">
-        <v>1.071246176</v>
+        <v>1.0976963099999999</v>
       </c>
       <c r="E55" s="3">
-        <v>1.2869758200000001</v>
+        <v>1.314422051</v>
       </c>
       <c r="F55" s="3">
-        <v>19.972335139999998</v>
+        <v>19.995463399999998</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>0.87544312300000005</v>
+        <v>0.85598860349999994</v>
       </c>
       <c r="D56" s="3">
-        <v>1.0976963099999999</v>
+        <v>1.0638481019999999</v>
       </c>
       <c r="E56" s="3">
-        <v>1.314422051</v>
+        <v>1.2772695110000001</v>
       </c>
       <c r="F56" s="3">
-        <v>19.995463399999998</v>
+        <v>19.79986177</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>0.85598860349999994</v>
+        <v>0.90022004690000001</v>
       </c>
       <c r="D57" s="3">
-        <v>1.0638481019999999</v>
+        <v>1.11641854</v>
       </c>
       <c r="E57" s="3">
-        <v>1.2772695110000001</v>
+        <v>1.3451622729999999</v>
       </c>
       <c r="F57" s="3">
-        <v>19.79986177</v>
+        <v>19.92721414</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>0.90022004690000001</v>
+        <v>0.90889938579999996</v>
       </c>
       <c r="D58" s="3">
-        <v>1.11641854</v>
+        <v>1.1251632730000001</v>
       </c>
       <c r="E58" s="3">
-        <v>1.3451622729999999</v>
+        <v>1.347959428</v>
       </c>
       <c r="F58" s="3">
-        <v>19.92721414</v>
+        <v>19.510947989999998</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>0.90889938579999996</v>
+        <v>0.91177853419999999</v>
       </c>
       <c r="D59" s="3">
-        <v>1.1251632730000001</v>
+        <v>1.1331759610000001</v>
       </c>
       <c r="E59" s="3">
-        <v>1.347959428</v>
+        <v>1.3524886190000001</v>
       </c>
       <c r="F59" s="3">
-        <v>19.510947989999998</v>
+        <v>19.44579216</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="3">
-        <v>0.91177853419999999</v>
+        <v>0.89673162949999996</v>
       </c>
       <c r="D60" s="3">
-        <v>1.1331759610000001</v>
+        <v>1.104507345</v>
       </c>
       <c r="E60" s="3">
-        <v>1.3524886190000001</v>
+        <v>1.322369192</v>
       </c>
       <c r="F60" s="3">
-        <v>19.44579216</v>
+        <v>19.268208779999998</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>0.89673162949999996</v>
+        <v>0.93021644069999998</v>
       </c>
       <c r="D61" s="3">
-        <v>1.104507345</v>
+        <v>1.148607913</v>
       </c>
       <c r="E61" s="3">
-        <v>1.322369192</v>
+        <v>1.3668097749999999</v>
       </c>
       <c r="F61" s="3">
-        <v>19.268208779999998</v>
+        <v>19.005325039999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>0.93021644069999998</v>
+        <v>0.90757958949999995</v>
       </c>
       <c r="D62" s="3">
-        <v>1.148607913</v>
+        <v>1.1270283459999999</v>
       </c>
       <c r="E62" s="3">
-        <v>1.3668097749999999</v>
+        <v>1.359406493</v>
       </c>
       <c r="F62" s="3">
-        <v>19.005325039999999</v>
+        <v>20.04505498</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="3">
-        <v>0.90757958949999995</v>
+        <v>0.95788523699999994</v>
       </c>
       <c r="D63" s="3">
-        <v>1.1270283459999999</v>
+        <v>1.19221054</v>
       </c>
       <c r="E63" s="3">
-        <v>1.359406493</v>
+        <v>1.440206879</v>
       </c>
       <c r="F63" s="3">
-        <v>20.04505498</v>
+        <v>20.228039689999999</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>0.95788523699999994</v>
+        <v>0.93477026389999995</v>
       </c>
       <c r="D64" s="3">
-        <v>1.19221054</v>
+        <v>1.1525386799999999</v>
       </c>
       <c r="E64" s="3">
-        <v>1.440206879</v>
+        <v>1.3807153080000001</v>
       </c>
       <c r="F64" s="3">
-        <v>20.228039689999999</v>
+        <v>19.346207280000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>0.93477026389999995</v>
+        <v>0.98972328030000001</v>
       </c>
       <c r="D65" s="3">
-        <v>1.1525386799999999</v>
+        <v>1.226315847</v>
       </c>
       <c r="E65" s="3">
-        <v>1.3807153080000001</v>
+        <v>1.4697518789999999</v>
       </c>
       <c r="F65" s="3">
-        <v>19.346207280000002</v>
+        <v>19.571980589999999</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="3">
-        <v>0.98972328030000001</v>
+        <v>1.0240453060000001</v>
       </c>
       <c r="D66" s="3">
-        <v>1.226315847</v>
+        <v>1.268955907</v>
       </c>
       <c r="E66" s="3">
-        <v>1.4697518789999999</v>
+        <v>1.5208316909999999</v>
       </c>
       <c r="F66" s="3">
-        <v>19.571980589999999</v>
+        <v>19.574611749999999</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>1.0240453060000001</v>
+        <v>0.99716040390000005</v>
       </c>
       <c r="D67" s="3">
-        <v>1.268955907</v>
+        <v>1.22369393</v>
       </c>
       <c r="E67" s="3">
-        <v>1.5208316909999999</v>
+        <v>1.4642342610000001</v>
       </c>
       <c r="F67" s="3">
-        <v>19.574611749999999</v>
+        <v>19.084586659999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>0.99716040390000005</v>
+        <v>1.001345565</v>
       </c>
       <c r="D68" s="3">
-        <v>1.22369393</v>
+        <v>1.2298989659999999</v>
       </c>
       <c r="E68" s="3">
-        <v>1.4642342610000001</v>
+        <v>1.4721794269999999</v>
       </c>
       <c r="F68" s="3">
-        <v>19.084586659999999</v>
+        <v>19.141160190000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>1.001345565</v>
+        <v>1.027964783</v>
       </c>
       <c r="D69" s="3">
-        <v>1.2298989659999999</v>
+        <v>1.2655021310000001</v>
       </c>
       <c r="E69" s="3">
-        <v>1.4721794269999999</v>
+        <v>1.5149051769999999</v>
       </c>
       <c r="F69" s="3">
-        <v>19.141160190000001</v>
+        <v>19.239019110000001</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="3">
-        <v>1.027964783</v>
+        <v>0.92033883019999996</v>
       </c>
       <c r="D70" s="3">
-        <v>1.2655021310000001</v>
+        <v>1.140232071</v>
       </c>
       <c r="E70" s="3">
-        <v>1.5149051769999999</v>
+        <v>1.3691455459999999</v>
       </c>
       <c r="F70" s="3">
-        <v>19.239019110000001</v>
+        <v>19.680498709999998</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="3">
-        <v>0.92033883019999996</v>
+        <v>1.033433896</v>
       </c>
       <c r="D71" s="3">
-        <v>1.140232071</v>
+        <v>1.281828062</v>
       </c>
       <c r="E71" s="3">
-        <v>1.3691455459999999</v>
+        <v>1.5366959339999999</v>
       </c>
       <c r="F71" s="3">
-        <v>19.680498709999998</v>
+        <v>19.63063743</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="3">
-        <v>1.033433896</v>
+        <v>1.042027587</v>
       </c>
       <c r="D72" s="3">
-        <v>1.281828062</v>
+        <v>1.2831361729999999</v>
       </c>
       <c r="E72" s="3">
-        <v>1.5366959339999999</v>
+        <v>1.5349204000000001</v>
       </c>
       <c r="F72" s="3">
-        <v>19.63063743</v>
+        <v>19.20656683</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="3">
-        <v>1.042027587</v>
+        <v>1.0168302419999999</v>
       </c>
       <c r="D73" s="3">
-        <v>1.2831361729999999</v>
+        <v>1.263021178</v>
       </c>
       <c r="E73" s="3">
-        <v>1.5349204000000001</v>
+        <v>1.50674325</v>
       </c>
       <c r="F73" s="3">
-        <v>19.20656683</v>
+        <v>19.394489050000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="3">
-        <v>1.0168302419999999</v>
+        <v>1.01166051</v>
       </c>
       <c r="D74" s="3">
-        <v>1.263021178</v>
+        <v>1.2541345660000001</v>
       </c>
       <c r="E74" s="3">
-        <v>1.50674325</v>
+        <v>1.5008340600000001</v>
       </c>
       <c r="F74" s="3">
-        <v>19.394489050000001</v>
+        <v>19.502434699999998</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="3">
-        <v>1.01166051</v>
+        <v>0.93768537439999999</v>
       </c>
       <c r="D75" s="3">
-        <v>1.2541345660000001</v>
+        <v>1.162472996</v>
       </c>
       <c r="E75" s="3">
-        <v>1.5008340600000001</v>
+        <v>1.406791583</v>
       </c>
       <c r="F75" s="3">
-        <v>19.502434699999998</v>
+        <v>20.17707983</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="3">
-        <v>0.93768537439999999</v>
+        <v>1.0455598239999999</v>
       </c>
       <c r="D76" s="3">
-        <v>1.162472996</v>
+        <v>1.30232204</v>
       </c>
       <c r="E76" s="3">
-        <v>1.406791583</v>
+        <v>1.564139645</v>
       </c>
       <c r="F76" s="3">
-        <v>20.17707983</v>
+        <v>19.909815129999998</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="3">
-        <v>1.0455598239999999</v>
+        <v>1.092588363</v>
       </c>
       <c r="D77" s="3">
-        <v>1.30232204</v>
+        <v>1.3606284259999999</v>
       </c>
       <c r="E77" s="3">
-        <v>1.564139645</v>
+        <v>1.637530355</v>
       </c>
       <c r="F77" s="3">
-        <v>19.909815129999998</v>
+        <v>20.02537877</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="3">
-        <v>1.092588363</v>
+        <v>1.076166704</v>
       </c>
       <c r="D78" s="3">
-        <v>1.3606284259999999</v>
+        <v>1.3291696690000001</v>
       </c>
       <c r="E78" s="3">
-        <v>1.637530355</v>
+        <v>1.5895343340000001</v>
       </c>
       <c r="F78" s="3">
-        <v>20.02537877</v>
+        <v>19.311591360000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3">
-        <v>1.076166704</v>
+        <v>1.0851509880000001</v>
       </c>
       <c r="D79" s="3">
-        <v>1.3291696690000001</v>
+        <v>1.340014917</v>
       </c>
       <c r="E79" s="3">
-        <v>1.5895343340000001</v>
+        <v>1.601694062</v>
       </c>
       <c r="F79" s="3">
-        <v>19.311591360000001</v>
+        <v>19.27378075</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="3">
-        <v>1.0851509880000001</v>
+        <v>1.056789025</v>
       </c>
       <c r="D80" s="3">
-        <v>1.340014917</v>
+        <v>1.315448583</v>
       </c>
       <c r="E80" s="3">
-        <v>1.601694062</v>
+        <v>1.5826388659999999</v>
       </c>
       <c r="F80" s="3">
-        <v>19.27378075</v>
+        <v>19.98747225</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="3">
-        <v>1.056789025</v>
+        <v>1.07765468</v>
       </c>
       <c r="D81" s="3">
-        <v>1.315448583</v>
+        <v>1.339075249</v>
       </c>
       <c r="E81" s="3">
-        <v>1.5826388659999999</v>
+        <v>1.6064310129999999</v>
       </c>
       <c r="F81" s="3">
-        <v>19.98747225</v>
+        <v>19.74408584</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="3">
-        <v>1.07765468</v>
+        <v>1.09713927</v>
       </c>
       <c r="D82" s="3">
-        <v>1.339075249</v>
+        <v>1.354293215</v>
       </c>
       <c r="E82" s="3">
-        <v>1.6064310129999999</v>
+        <v>1.6272492359999999</v>
       </c>
       <c r="F82" s="3">
-        <v>19.74408584</v>
+        <v>19.571462069999999</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="3">
-        <v>1.09713927</v>
+        <v>1.0755271369999999</v>
       </c>
       <c r="D83" s="3">
-        <v>1.354293215</v>
+        <v>1.333192921</v>
       </c>
       <c r="E83" s="3">
-        <v>1.6272492359999999</v>
+        <v>1.6119044010000001</v>
       </c>
       <c r="F83" s="3">
-        <v>19.571462069999999</v>
+        <v>20.11626579</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="3">
-        <v>1.0755271369999999</v>
+        <v>1.0940059040000001</v>
       </c>
       <c r="D84" s="3">
-        <v>1.333192921</v>
+        <v>1.3653967579999999</v>
       </c>
       <c r="E84" s="3">
-        <v>1.6119044010000001</v>
+        <v>1.639484006</v>
       </c>
       <c r="F84" s="3">
-        <v>20.11626579</v>
+        <v>19.975076829999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="3">
-        <v>1.0940059040000001</v>
+        <v>1.113099533</v>
       </c>
       <c r="D85" s="3">
-        <v>1.3653967579999999</v>
+        <v>1.3709477210000001</v>
       </c>
       <c r="E85" s="3">
-        <v>1.639484006</v>
+        <v>1.639395822</v>
       </c>
       <c r="F85" s="3">
-        <v>19.975076829999999</v>
+        <v>19.194615559999999</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="3">
-        <v>1.113099533</v>
+        <v>1.1594099550000001</v>
       </c>
       <c r="D86" s="3">
-        <v>1.3709477210000001</v>
+        <v>1.4420800680000001</v>
       </c>
       <c r="E86" s="3">
-        <v>1.639395822</v>
+        <v>1.731143313</v>
       </c>
       <c r="F86" s="3">
-        <v>19.194615559999999</v>
+        <v>19.823218239999999</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="3">
-        <v>1.1594099550000001</v>
+        <v>1.143060728</v>
       </c>
       <c r="D87" s="3">
-        <v>1.4420800680000001</v>
+        <v>1.4216442709999999</v>
       </c>
       <c r="E87" s="3">
-        <v>1.731143313</v>
+        <v>1.7099004600000001</v>
       </c>
       <c r="F87" s="3">
-        <v>19.823218239999999</v>
+        <v>19.936060770000001</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="3">
-        <v>1.143060728</v>
+        <v>1.1730442889999999</v>
       </c>
       <c r="D88" s="3">
-        <v>1.4216442709999999</v>
+        <v>1.4512126080000001</v>
       </c>
       <c r="E88" s="3">
-        <v>1.7099004600000001</v>
+        <v>1.7353992410000001</v>
       </c>
       <c r="F88" s="3">
-        <v>19.936060770000001</v>
+        <v>19.37534681</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="3">
-        <v>1.1730442889999999</v>
+        <v>1.1572798369999999</v>
       </c>
       <c r="D89" s="3">
-        <v>1.4512126080000001</v>
+        <v>1.4270244620000001</v>
       </c>
       <c r="E89" s="3">
-        <v>1.7353992410000001</v>
+        <v>1.7040650559999999</v>
       </c>
       <c r="F89" s="3">
-        <v>19.37534681</v>
+        <v>19.158228640000001</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="3">
-        <v>1.1572798369999999</v>
+        <v>1.0221657799999999</v>
       </c>
       <c r="D90" s="3">
-        <v>1.4270244620000001</v>
+        <v>1.260192795</v>
       </c>
       <c r="E90" s="3">
-        <v>1.7040650559999999</v>
+        <v>1.5030845690000001</v>
       </c>
       <c r="F90" s="3">
-        <v>19.158228640000001</v>
+        <v>19.081159299999999</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="3">
-        <v>1.0221657799999999</v>
+        <v>1.0511856639999999</v>
       </c>
       <c r="D91" s="3">
-        <v>1.260192795</v>
+        <v>1.30568905</v>
       </c>
       <c r="E91" s="3">
-        <v>1.5030845690000001</v>
+        <v>1.56279649</v>
       </c>
       <c r="F91" s="3">
-        <v>19.081159299999999</v>
+        <v>19.591602850000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="3">
-        <v>1.0511856639999999</v>
+        <v>1.0663087659999999</v>
       </c>
       <c r="D92" s="3">
-        <v>1.30568905</v>
+        <v>1.32100762</v>
       </c>
       <c r="E92" s="3">
-        <v>1.56279649</v>
+        <v>1.5808130300000001</v>
       </c>
       <c r="F92" s="3">
-        <v>19.591602850000001</v>
+        <v>19.473932489999999</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="3">
-        <v>1.0663087659999999</v>
+        <v>1.1366729499999999</v>
       </c>
       <c r="D93" s="3">
-        <v>1.32100762</v>
+        <v>1.41940084</v>
       </c>
       <c r="E93" s="3">
-        <v>1.5808130300000001</v>
+        <v>1.7001631269999999</v>
       </c>
       <c r="F93" s="3">
-        <v>19.473932489999999</v>
+        <v>19.849578810000001</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="3">
-        <v>1.1366729499999999</v>
+        <v>1.1221855629999999</v>
       </c>
       <c r="D94" s="3">
-        <v>1.41940084</v>
+        <v>1.4058362719999999</v>
       </c>
       <c r="E94" s="3">
-        <v>1.7001631269999999</v>
+        <v>1.6867595040000001</v>
       </c>
       <c r="F94" s="3">
-        <v>19.849578810000001</v>
+        <v>20.079647690000002</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="3">
-        <v>1.1221855629999999</v>
+        <v>1.1229995349999999</v>
       </c>
       <c r="D95" s="3">
-        <v>1.4058362719999999</v>
+        <v>1.4037234169999999</v>
       </c>
       <c r="E95" s="3">
-        <v>1.6867595040000001</v>
+        <v>1.690413352</v>
       </c>
       <c r="F95" s="3">
-        <v>20.079647690000002</v>
+        <v>20.211026230000002</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="3">
-        <v>1.1229995349999999</v>
+        <v>1.172277555</v>
       </c>
       <c r="D96" s="3">
-        <v>1.4037234169999999</v>
+        <v>1.468532773</v>
       </c>
       <c r="E96" s="3">
-        <v>1.690413352</v>
+        <v>1.760170228</v>
       </c>
       <c r="F96" s="3">
-        <v>20.211026230000002</v>
+        <v>20.016327969999999</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="3">
-        <v>1.172277555</v>
+        <v>1.1027331220000001</v>
       </c>
       <c r="D97" s="3">
-        <v>1.468532773</v>
+        <v>1.375642896</v>
       </c>
       <c r="E97" s="3">
-        <v>1.760170228</v>
+        <v>1.649474981</v>
       </c>
       <c r="F97" s="3">
-        <v>20.016327969999999</v>
+        <v>19.872230689999999</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>1.1027331220000001</v>
+        <v>1.1583442580000001</v>
       </c>
       <c r="D98" s="3">
-        <v>1.375642896</v>
+        <v>1.4525842929999999</v>
       </c>
       <c r="E98" s="3">
-        <v>1.649474981</v>
+        <v>1.750820821</v>
       </c>
       <c r="F98" s="3">
-        <v>19.872230689999999</v>
+        <v>20.393878900000001</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>1.1583442580000001</v>
+        <v>1.1459942080000001</v>
       </c>
       <c r="D99" s="3">
-        <v>1.4525842929999999</v>
+        <v>1.417427647</v>
       </c>
       <c r="E99" s="3">
-        <v>1.750820821</v>
+        <v>1.6981646969999999</v>
       </c>
       <c r="F99" s="3">
-        <v>20.393878900000001</v>
+        <v>19.477907389999999</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>1.1459942080000001</v>
+        <v>1.079051355</v>
       </c>
       <c r="D100" s="3">
-        <v>1.417427647</v>
+        <v>1.342432989</v>
       </c>
       <c r="E100" s="3">
-        <v>1.6981646969999999</v>
+        <v>1.611393554</v>
       </c>
       <c r="F100" s="3">
-        <v>19.477907389999999</v>
+        <v>19.827514780000001</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>1.079051355</v>
+        <v>1.1622334320000001</v>
       </c>
       <c r="D101" s="3">
-        <v>1.342432989</v>
+        <v>1.4536205200000001</v>
       </c>
       <c r="E101" s="3">
-        <v>1.611393554</v>
+        <v>1.752620858</v>
       </c>
       <c r="F101" s="3">
-        <v>19.827514780000001</v>
+        <v>20.30748114</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>1.1622334320000001</v>
+        <v>1.140727233</v>
       </c>
       <c r="D102" s="3">
-        <v>1.4536205200000001</v>
+        <v>1.416989423</v>
       </c>
       <c r="E102" s="3">
-        <v>1.752620858</v>
+        <v>1.7011739349999999</v>
       </c>
       <c r="F102" s="3">
-        <v>20.30748114</v>
+        <v>19.775966310000001</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>1.140727233</v>
+        <v>1.118878161</v>
       </c>
       <c r="D103" s="3">
-        <v>1.416989423</v>
+        <v>1.38286832</v>
       </c>
       <c r="E103" s="3">
-        <v>1.7011739349999999</v>
+        <v>1.659844329</v>
       </c>
       <c r="F103" s="3">
-        <v>19.775966310000001</v>
+        <v>19.559569060000001</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>1.118878161</v>
+        <v>1.159170083</v>
       </c>
       <c r="D104" s="3">
-        <v>1.38286832</v>
+        <v>1.4394084309999999</v>
       </c>
       <c r="E104" s="3">
-        <v>1.659844329</v>
+        <v>1.725998988</v>
       </c>
       <c r="F104" s="3">
-        <v>19.559569060000001</v>
+        <v>19.689647959999999</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>1.159170083</v>
+        <v>1.1550772030000001</v>
       </c>
       <c r="D105" s="3">
-        <v>1.4394084309999999</v>
+        <v>1.4404463249999999</v>
       </c>
       <c r="E105" s="3">
-        <v>1.725998988</v>
+        <v>1.7322039250000001</v>
       </c>
       <c r="F105" s="3">
-        <v>19.689647959999999</v>
+        <v>20.032913140000002</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="3">
-        <v>1.1550772030000001</v>
+        <v>0.65662818060000006</v>
       </c>
       <c r="D106" s="3">
-        <v>1.4404463249999999</v>
+        <v>0.79623402939999999</v>
       </c>
       <c r="E106" s="3">
-        <v>1.7322039250000001</v>
+        <v>0.93341680650000003</v>
       </c>
       <c r="F106" s="3">
-        <v>20.032913140000002</v>
+        <v>17.38111005</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="3">
-        <v>0.65662818060000006</v>
+        <v>0.6769153362</v>
       </c>
       <c r="D107" s="3">
-        <v>0.79623402939999999</v>
+        <v>0.81520151649999995</v>
       </c>
       <c r="E107" s="3">
-        <v>0.93341680650000003</v>
+        <v>0.95583676910000004</v>
       </c>
       <c r="F107" s="3">
-        <v>17.38111005</v>
+        <v>17.107514349999999</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="3">
-        <v>0.6769153362</v>
+        <v>0.66427146209999999</v>
       </c>
       <c r="D108" s="3">
-        <v>0.81520151649999995</v>
+        <v>0.78875189469999996</v>
       </c>
       <c r="E108" s="3">
-        <v>0.95583676910000004</v>
+        <v>0.92232955660000004</v>
       </c>
       <c r="F108" s="3">
-        <v>17.107514349999999</v>
+        <v>16.35863548</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="3">
-        <v>0.66427146209999999</v>
+        <v>0.69298212240000001</v>
       </c>
       <c r="D109" s="3">
-        <v>0.78875189469999996</v>
+        <v>0.83266400949999997</v>
       </c>
       <c r="E109" s="3">
-        <v>0.92232955660000004</v>
+        <v>0.9771741639</v>
       </c>
       <c r="F109" s="3">
-        <v>16.35863548</v>
+        <v>17.065229089999999</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="3">
-        <v>0.69298212240000001</v>
+        <v>0.69349388670000001</v>
       </c>
       <c r="D110" s="3">
-        <v>0.83266400949999997</v>
+        <v>0.8364383675</v>
       </c>
       <c r="E110" s="3">
-        <v>0.9771741639</v>
+        <v>0.98304296000000002</v>
       </c>
       <c r="F110" s="3">
-        <v>17.065229089999999</v>
+        <v>17.308452389999999</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="3">
-        <v>0.69349388670000001</v>
+        <v>0.70400552979999997</v>
       </c>
       <c r="D111" s="3">
-        <v>0.8364383675</v>
+        <v>0.83764914290000003</v>
       </c>
       <c r="E111" s="3">
-        <v>0.98304296000000002</v>
+        <v>0.98006643110000002</v>
       </c>
       <c r="F111" s="3">
-        <v>17.308452389999999</v>
+        <v>16.478313360000001</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>0.70400552979999997</v>
+        <v>0.68852607369999996</v>
       </c>
       <c r="D112" s="3">
-        <v>0.83764914290000003</v>
+        <v>0.81981408330000005</v>
       </c>
       <c r="E112" s="3">
-        <v>0.98006643110000002</v>
+        <v>0.96116655009999996</v>
       </c>
       <c r="F112" s="3">
-        <v>16.478313360000001</v>
+        <v>16.62818936</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>0.68852607369999996</v>
+        <v>0.71149200909999999</v>
       </c>
       <c r="D113" s="3">
-        <v>0.81981408330000005</v>
+        <v>0.8492956545</v>
       </c>
       <c r="E113" s="3">
-        <v>0.96116655009999996</v>
+        <v>0.99247460789999997</v>
       </c>
       <c r="F113" s="3">
-        <v>16.62818936</v>
+        <v>16.542095639999999</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="3">
-        <v>0.71149200909999999</v>
+        <v>0.69558385909999998</v>
       </c>
       <c r="D114" s="3">
-        <v>0.8492956545</v>
+        <v>0.83976355709999995</v>
       </c>
       <c r="E114" s="3">
-        <v>0.99247460789999997</v>
+        <v>0.98966508980000001</v>
       </c>
       <c r="F114" s="3">
-        <v>16.542095639999999</v>
+        <v>17.509763800000002</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="3">
-        <v>0.69558385909999998</v>
+        <v>0.73692438969999996</v>
       </c>
       <c r="D115" s="3">
-        <v>0.83976355709999995</v>
+        <v>0.88627090590000002</v>
       </c>
       <c r="E115" s="3">
-        <v>0.98966508980000001</v>
+        <v>1.043130941</v>
       </c>
       <c r="F115" s="3">
-        <v>17.509763800000002</v>
+        <v>17.274997389999999</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="3">
-        <v>0.73692438969999996</v>
+        <v>0.71507305909999996</v>
       </c>
       <c r="D116" s="3">
-        <v>0.88627090590000002</v>
+        <v>0.86000055009999998</v>
       </c>
       <c r="E116" s="3">
-        <v>1.043130941</v>
+        <v>1.0045082190000001</v>
       </c>
       <c r="F116" s="3">
-        <v>17.274997389999999</v>
+        <v>16.827614799999999</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="3">
-        <v>0.71507305909999996</v>
+        <v>0.76653325660000005</v>
       </c>
       <c r="D117" s="3">
-        <v>0.86000055009999998</v>
+        <v>0.91677989630000001</v>
       </c>
       <c r="E117" s="3">
-        <v>1.0045082190000001</v>
+        <v>1.0776714759999999</v>
       </c>
       <c r="F117" s="3">
-        <v>16.827614799999999</v>
+        <v>16.969079529999998</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="3">
-        <v>0.76653325660000005</v>
+        <v>0.79448110459999999</v>
       </c>
       <c r="D118" s="3">
-        <v>0.91677989630000001</v>
+        <v>0.95123171039999999</v>
       </c>
       <c r="E118" s="3">
-        <v>1.0776714759999999</v>
+        <v>1.1153386300000001</v>
       </c>
       <c r="F118" s="3">
-        <v>16.969079529999998</v>
+        <v>16.865371580000001</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="3">
-        <v>0.79448110459999999</v>
+        <v>0.77144073599999996</v>
       </c>
       <c r="D119" s="3">
-        <v>0.95123171039999999</v>
+        <v>0.9208932178</v>
       </c>
       <c r="E119" s="3">
-        <v>1.1153386300000001</v>
+        <v>1.0736599229999999</v>
       </c>
       <c r="F119" s="3">
-        <v>16.865371580000001</v>
+        <v>16.409024460000001</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="3">
-        <v>0.77144073599999996</v>
+        <v>0.770650532</v>
       </c>
       <c r="D120" s="3">
-        <v>0.9208932178</v>
+        <v>0.92220754220000001</v>
       </c>
       <c r="E120" s="3">
-        <v>1.0736599229999999</v>
+        <v>1.078351745</v>
       </c>
       <c r="F120" s="3">
-        <v>16.409024460000001</v>
+        <v>16.682861460000002</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="3">
-        <v>0.770650532</v>
+        <v>0.79566486729999997</v>
       </c>
       <c r="D121" s="3">
-        <v>0.92220754220000001</v>
+        <v>0.95226653650000004</v>
       </c>
       <c r="E121" s="3">
-        <v>1.078351745</v>
+        <v>1.116256688</v>
       </c>
       <c r="F121" s="3">
-        <v>16.682861460000002</v>
+        <v>16.833092839999999</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="3">
-        <v>0.79566486729999997</v>
+        <v>0.71859943959999995</v>
       </c>
       <c r="D122" s="3">
-        <v>0.95226653650000004</v>
+        <v>0.86655962639999995</v>
       </c>
       <c r="E122" s="3">
-        <v>1.116256688</v>
+        <v>1.0142908070000001</v>
       </c>
       <c r="F122" s="3">
-        <v>16.833092839999999</v>
+        <v>17.061224580000001</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="3">
-        <v>0.71859943959999995</v>
+        <v>0.79605137810000004</v>
       </c>
       <c r="D123" s="3">
-        <v>0.86655962639999995</v>
+        <v>0.9631903705</v>
       </c>
       <c r="E123" s="3">
-        <v>1.0142908070000001</v>
+        <v>1.134485762</v>
       </c>
       <c r="F123" s="3">
-        <v>17.061224580000001</v>
+        <v>17.5684057</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="3">
-        <v>0.79605137810000004</v>
+        <v>0.80510700680000002</v>
       </c>
       <c r="D124" s="3">
-        <v>0.9631903705</v>
+        <v>0.96456280439999997</v>
       </c>
       <c r="E124" s="3">
-        <v>1.134485762</v>
+        <v>1.12895707</v>
       </c>
       <c r="F124" s="3">
-        <v>17.5684057</v>
+        <v>16.787401599999999</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="3">
-        <v>0.80510700680000002</v>
+        <v>0.79054074389999995</v>
       </c>
       <c r="D125" s="3">
-        <v>0.96456280439999997</v>
+        <v>0.94847612299999995</v>
       </c>
       <c r="E125" s="3">
-        <v>1.12895707</v>
+        <v>1.1137343829999999</v>
       </c>
       <c r="F125" s="3">
-        <v>16.787401599999999</v>
+        <v>17.03752111</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="3">
-        <v>0.79054074389999995</v>
+        <v>0.7811758835</v>
       </c>
       <c r="D126" s="3">
-        <v>0.94847612299999995</v>
+        <v>0.94113024509999998</v>
       </c>
       <c r="E126" s="3">
-        <v>1.1137343829999999</v>
+        <v>1.100088145</v>
       </c>
       <c r="F126" s="3">
-        <v>17.03752111</v>
+        <v>16.943046030000001</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="3">
-        <v>0.7811758835</v>
+        <v>0.7194168138</v>
       </c>
       <c r="D127" s="3">
-        <v>0.94113024509999998</v>
+        <v>0.87317140660000003</v>
       </c>
       <c r="E127" s="3">
-        <v>1.100088145</v>
+        <v>1.0318105580000001</v>
       </c>
       <c r="F127" s="3">
-        <v>16.943046030000001</v>
+        <v>17.888454769999999</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="3">
-        <v>0.7194168138</v>
+        <v>0.80968745450000001</v>
       </c>
       <c r="D128" s="3">
-        <v>0.87317140660000003</v>
+        <v>0.9823853562</v>
       </c>
       <c r="E128" s="3">
-        <v>1.0318105580000001</v>
+        <v>1.156190584</v>
       </c>
       <c r="F128" s="3">
-        <v>17.888454769999999</v>
+        <v>17.635804910000001</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="3">
-        <v>0.80968745450000001</v>
+        <v>0.84871478690000002</v>
       </c>
       <c r="D129" s="3">
-        <v>0.9823853562</v>
+        <v>1.0247554400000001</v>
       </c>
       <c r="E129" s="3">
-        <v>1.156190584</v>
+        <v>1.208081478</v>
       </c>
       <c r="F129" s="3">
-        <v>17.635804910000001</v>
+        <v>17.534266070000001</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="3">
-        <v>0.84871478690000002</v>
+        <v>0.83406221059999996</v>
       </c>
       <c r="D130" s="3">
-        <v>1.0247554400000001</v>
+        <v>1.000136296</v>
       </c>
       <c r="E130" s="3">
-        <v>1.208081478</v>
+        <v>1.177527843</v>
       </c>
       <c r="F130" s="3">
-        <v>17.534266070000001</v>
+        <v>17.170941280000001</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="3">
-        <v>0.83406221059999996</v>
+        <v>0.8422975654</v>
       </c>
       <c r="D131" s="3">
-        <v>1.000136296</v>
+        <v>1.008791534</v>
       </c>
       <c r="E131" s="3">
-        <v>1.177527843</v>
+        <v>1.1808421490000001</v>
       </c>
       <c r="F131" s="3">
-        <v>17.170941280000001</v>
+        <v>16.779709799999999</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="3">
-        <v>0.8422975654</v>
+        <v>0.82209787710000004</v>
       </c>
       <c r="D132" s="3">
-        <v>1.008791534</v>
+        <v>0.98859013760000003</v>
       </c>
       <c r="E132" s="3">
-        <v>1.1808421490000001</v>
+        <v>1.16128327</v>
       </c>
       <c r="F132" s="3">
-        <v>16.779709799999999</v>
+        <v>17.155005899999999</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="3">
-        <v>0.82209787710000004</v>
+        <v>0.83863855220000005</v>
       </c>
       <c r="D133" s="3">
-        <v>0.98859013760000003</v>
+        <v>1.0083946939999999</v>
       </c>
       <c r="E133" s="3">
-        <v>1.16128327</v>
+        <v>1.1791697670000001</v>
       </c>
       <c r="F133" s="3">
-        <v>17.155005899999999</v>
+        <v>16.884817869999999</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="3">
-        <v>0.83863855220000005</v>
+        <v>0.84829988509999998</v>
       </c>
       <c r="D134" s="3">
-        <v>1.0083946939999999</v>
+        <v>1.020058718</v>
       </c>
       <c r="E134" s="3">
-        <v>1.1791697670000001</v>
+        <v>1.1988607819999999</v>
       </c>
       <c r="F134" s="3">
-        <v>16.884817869999999</v>
+        <v>17.183368510000001</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="3">
-        <v>0.84829988509999998</v>
+        <v>0.83287192759999995</v>
       </c>
       <c r="D135" s="3">
-        <v>1.020058718</v>
+        <v>1.002131887</v>
       </c>
       <c r="E135" s="3">
-        <v>1.1988607819999999</v>
+        <v>1.1801342480000001</v>
       </c>
       <c r="F135" s="3">
-        <v>17.183368510000001</v>
+        <v>17.326178580000001</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="3">
-        <v>0.83287192759999995</v>
+        <v>0.85394264819999999</v>
       </c>
       <c r="D136" s="3">
-        <v>1.002131887</v>
+        <v>1.031638616</v>
       </c>
       <c r="E136" s="3">
-        <v>1.1801342480000001</v>
+        <v>1.214564231</v>
       </c>
       <c r="F136" s="3">
-        <v>17.326178580000001</v>
+        <v>17.478096369999999</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="3">
-        <v>0.85394264819999999</v>
+        <v>0.86936375290000001</v>
       </c>
       <c r="D137" s="3">
-        <v>1.031638616</v>
+        <v>1.0343675830000001</v>
       </c>
       <c r="E137" s="3">
-        <v>1.214564231</v>
+        <v>1.214393831</v>
       </c>
       <c r="F137" s="3">
-        <v>17.478096369999999</v>
+        <v>16.678310700000001</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="3">
-        <v>0.86936375290000001</v>
+        <v>0.89902113149999996</v>
       </c>
       <c r="D138" s="3">
-        <v>1.0343675830000001</v>
+        <v>1.0891688470000001</v>
       </c>
       <c r="E138" s="3">
-        <v>1.214393831</v>
+        <v>1.281257254</v>
       </c>
       <c r="F138" s="3">
-        <v>16.678310700000001</v>
+        <v>17.547147219999999</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="3">
-        <v>0.89902113149999996</v>
+        <v>0.89034193090000002</v>
       </c>
       <c r="D139" s="3">
-        <v>1.0891688470000001</v>
+        <v>1.0751228719999999</v>
       </c>
       <c r="E139" s="3">
-        <v>1.281257254</v>
+        <v>1.260016655</v>
       </c>
       <c r="F139" s="3">
-        <v>17.547147219999999</v>
+        <v>17.192208149999999</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="3">
-        <v>0.89034193090000002</v>
+        <v>0.91474927490000002</v>
       </c>
       <c r="D140" s="3">
-        <v>1.0751228719999999</v>
+        <v>1.102170358</v>
       </c>
       <c r="E140" s="3">
-        <v>1.260016655</v>
+        <v>1.288325266</v>
       </c>
       <c r="F140" s="3">
-        <v>17.192208149999999</v>
+        <v>16.947288969999999</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C141" s="3">
-        <v>0.91474927490000002</v>
+        <v>0.89861064400000001</v>
       </c>
       <c r="D141" s="3">
-        <v>1.102170358</v>
+        <v>1.0769462000000001</v>
       </c>
       <c r="E141" s="3">
-        <v>1.288325266</v>
+        <v>1.261748147</v>
       </c>
       <c r="F141" s="3">
-        <v>16.947288969999999</v>
+        <v>16.859593490000002</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="3">
-        <v>0.89861064400000001</v>
+        <v>0.79255395630000003</v>
       </c>
       <c r="D142" s="3">
-        <v>1.0769462000000001</v>
+        <v>0.94715989420000002</v>
       </c>
       <c r="E142" s="3">
-        <v>1.261748147</v>
+        <v>1.1047773949999999</v>
       </c>
       <c r="F142" s="3">
-        <v>16.859593490000002</v>
+        <v>16.482087150000002</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="3">
-        <v>0.79255395630000003</v>
+        <v>0.81650363910000001</v>
       </c>
       <c r="D143" s="3">
-        <v>0.94715989420000002</v>
+        <v>0.98029020160000002</v>
       </c>
       <c r="E143" s="3">
-        <v>1.1047773949999999</v>
+        <v>1.1493916369999999</v>
       </c>
       <c r="F143" s="3">
-        <v>16.482087150000002</v>
+        <v>16.97905364</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>0.81650363910000001</v>
+        <v>0.82496434870000002</v>
       </c>
       <c r="D144" s="3">
-        <v>0.98029020160000002</v>
+        <v>0.99422765800000001</v>
       </c>
       <c r="E144" s="3">
-        <v>1.1493916369999999</v>
+        <v>1.1693222510000001</v>
       </c>
       <c r="F144" s="3">
-        <v>16.97905364</v>
+        <v>17.317859720000001</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="3">
-        <v>0.82496434870000002</v>
+        <v>0.88741766990000004</v>
       </c>
       <c r="D145" s="3">
-        <v>0.99422765800000001</v>
+        <v>1.0717646169999999</v>
       </c>
       <c r="E145" s="3">
-        <v>1.1693222510000001</v>
+        <v>1.2632182460000001</v>
       </c>
       <c r="F145" s="3">
-        <v>17.317859720000001</v>
+        <v>17.531861500000002</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="3">
-        <v>0.88741766990000004</v>
+        <v>0.87762291189999997</v>
       </c>
       <c r="D146" s="3">
-        <v>1.0717646169999999</v>
+        <v>1.0578301139999999</v>
       </c>
       <c r="E146" s="3">
-        <v>1.2632182460000001</v>
+        <v>1.248256137</v>
       </c>
       <c r="F146" s="3">
-        <v>17.531861500000002</v>
+        <v>17.518560879999999</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="3">
-        <v>0.87762291189999997</v>
+        <v>0.87939378560000003</v>
       </c>
       <c r="D147" s="3">
-        <v>1.0578301139999999</v>
+        <v>1.0604417290000001</v>
       </c>
       <c r="E147" s="3">
-        <v>1.248256137</v>
+        <v>1.247207964</v>
       </c>
       <c r="F147" s="3">
-        <v>17.518560879999999</v>
+        <v>17.342498339999999</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="3">
-        <v>0.87939378560000003</v>
+        <v>0.91812502959999998</v>
       </c>
       <c r="D148" s="3">
-        <v>1.0604417290000001</v>
+        <v>1.11371815</v>
       </c>
       <c r="E148" s="3">
-        <v>1.247207964</v>
+        <v>1.3107533819999999</v>
       </c>
       <c r="F148" s="3">
-        <v>17.342498339999999</v>
+        <v>17.626917219999999</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="3">
-        <v>0.91812502959999998</v>
+        <v>0.86330372769999997</v>
       </c>
       <c r="D149" s="3">
-        <v>1.11371815</v>
+        <v>1.040962291</v>
       </c>
       <c r="E149" s="3">
-        <v>1.3107533819999999</v>
+        <v>1.221774108</v>
       </c>
       <c r="F149" s="3">
-        <v>17.626917219999999</v>
+        <v>17.218221249999999</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="3">
-        <v>0.86330372769999997</v>
+        <v>0.8989002465</v>
       </c>
       <c r="D150" s="3">
-        <v>1.040962291</v>
+        <v>1.102863554</v>
       </c>
       <c r="E150" s="3">
-        <v>1.221774108</v>
+        <v>1.3043483469999999</v>
       </c>
       <c r="F150" s="3">
-        <v>17.218221249999999</v>
+        <v>18.381607540000001</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="3">
-        <v>0.8989002465</v>
+        <v>0.89628040109999996</v>
       </c>
       <c r="D151" s="3">
-        <v>1.102863554</v>
+        <v>1.079628469</v>
       </c>
       <c r="E151" s="3">
-        <v>1.3043483469999999</v>
+        <v>1.2698542230000001</v>
       </c>
       <c r="F151" s="3">
-        <v>18.381607540000001</v>
+        <v>17.30103605</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="3">
-        <v>0.89628040109999996</v>
+        <v>0.8412575417</v>
       </c>
       <c r="D152" s="3">
-        <v>1.079628469</v>
+        <v>1.0177303179999999</v>
       </c>
       <c r="E152" s="3">
-        <v>1.2698542230000001</v>
+        <v>1.199014813</v>
       </c>
       <c r="F152" s="3">
-        <v>17.30103605</v>
+        <v>17.576231360000001</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="3">
-        <v>0.8412575417</v>
+        <v>0.90989293959999995</v>
       </c>
       <c r="D153" s="3">
-        <v>1.0177303179999999</v>
+        <v>1.105058275</v>
       </c>
       <c r="E153" s="3">
-        <v>1.199014813</v>
+        <v>1.3061188610000001</v>
       </c>
       <c r="F153" s="3">
-        <v>17.576231360000001</v>
+        <v>17.92782927</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="3">
-        <v>0.90989293959999995</v>
+        <v>0.88591717150000004</v>
       </c>
       <c r="D154" s="3">
-        <v>1.105058275</v>
+        <v>1.071112912</v>
       </c>
       <c r="E154" s="3">
-        <v>1.3061188610000001</v>
+        <v>1.2640711760000001</v>
       </c>
       <c r="F154" s="3">
-        <v>17.92782927</v>
+        <v>17.652387529999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="3">
-        <v>0.88591717150000004</v>
+        <v>0.87254572880000003</v>
       </c>
       <c r="D155" s="3">
-        <v>1.071112912</v>
+        <v>1.0521724889999999</v>
       </c>
       <c r="E155" s="3">
-        <v>1.2640711760000001</v>
+        <v>1.22917711</v>
       </c>
       <c r="F155" s="3">
-        <v>17.652387529999999</v>
+        <v>16.947381969999999</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C156" s="3">
-        <v>0.87254572880000003</v>
+        <v>0.90532855249999999</v>
       </c>
       <c r="D156" s="3">
-        <v>1.0521724889999999</v>
+        <v>1.0922021500000001</v>
       </c>
       <c r="E156" s="3">
-        <v>1.22917711</v>
+        <v>1.283447733</v>
       </c>
       <c r="F156" s="3">
-        <v>16.947381969999999</v>
+        <v>17.30994488</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="3">
-        <v>0.90532855249999999</v>
+        <v>0.90751038819999996</v>
       </c>
       <c r="D157" s="3">
-        <v>1.0922021500000001</v>
+        <v>1.1006841300000001</v>
       </c>
       <c r="E157" s="3">
-        <v>1.283447733</v>
+        <v>1.2983616170000001</v>
       </c>
       <c r="F157" s="3">
-        <v>17.30994488</v>
+        <v>17.754922520000001</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>0.90751038819999996</v>
+        <v>8.3801350280000006E-2</v>
       </c>
       <c r="D158" s="3">
-        <v>1.1006841300000001</v>
+        <v>0.1135403853</v>
       </c>
       <c r="E158" s="3">
-        <v>1.2983616170000001</v>
+        <v>0.14358139080000001</v>
       </c>
       <c r="F158" s="3">
-        <v>17.754922520000001</v>
+        <v>26.325452540000001</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>8.3801350280000006E-2</v>
+        <v>8.6711689810000006E-2</v>
       </c>
       <c r="D159" s="3">
-        <v>0.1135403853</v>
+        <v>0.1163135594</v>
       </c>
       <c r="E159" s="3">
-        <v>0.14358139080000001</v>
+        <v>0.1472257257</v>
       </c>
       <c r="F159" s="3">
-        <v>26.325452540000001</v>
+        <v>26.013319599999999</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>8.6711689810000006E-2</v>
+        <v>8.3498966290000004E-2</v>
       </c>
       <c r="D160" s="3">
-        <v>0.1163135594</v>
+        <v>0.1110414233</v>
       </c>
       <c r="E160" s="3">
-        <v>0.1472257257</v>
+        <v>0.13915120819999999</v>
       </c>
       <c r="F160" s="3">
-        <v>26.013319599999999</v>
+        <v>25.059225770000001</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>8.3498966290000004E-2</v>
+        <v>8.601158347E-2</v>
       </c>
       <c r="D161" s="3">
-        <v>0.1110414233</v>
+        <v>0.116545992</v>
       </c>
       <c r="E161" s="3">
-        <v>0.13915120819999999</v>
+        <v>0.14687640129999999</v>
       </c>
       <c r="F161" s="3">
-        <v>25.059225770000001</v>
+        <v>26.111930940000001</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="3">
-        <v>8.601158347E-2</v>
+        <v>8.9094163759999997E-2</v>
       </c>
       <c r="D162" s="3">
-        <v>0.116545992</v>
+        <v>0.1190212239</v>
       </c>
       <c r="E162" s="3">
-        <v>0.14687640129999999</v>
+        <v>0.15011467019999999</v>
       </c>
       <c r="F162" s="3">
-        <v>26.111930940000001</v>
+        <v>25.634296290000002</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="3">
-        <v>8.9094163759999997E-2</v>
+        <v>9.0210407650000005E-2</v>
       </c>
       <c r="D163" s="3">
-        <v>0.1190212239</v>
+        <v>0.1195054296</v>
       </c>
       <c r="E163" s="3">
-        <v>0.15011467019999999</v>
+        <v>0.1503522018</v>
       </c>
       <c r="F163" s="3">
-        <v>25.634296290000002</v>
+        <v>25.16278733</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="3">
-        <v>9.0210407650000005E-2</v>
+        <v>8.8043968459999997E-2</v>
       </c>
       <c r="D164" s="3">
-        <v>0.1195054296</v>
+        <v>0.1169404849</v>
       </c>
       <c r="E164" s="3">
-        <v>0.1503522018</v>
+        <v>0.1470423626</v>
       </c>
       <c r="F164" s="3">
-        <v>25.16278733</v>
+        <v>25.225820729999999</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="3">
-        <v>8.8043968459999997E-2</v>
+        <v>9.1427519410000005E-2</v>
       </c>
       <c r="D165" s="3">
-        <v>0.1169404849</v>
+        <v>0.12139869389999999</v>
       </c>
       <c r="E165" s="3">
-        <v>0.1470423626</v>
+        <v>0.15250438790000001</v>
       </c>
       <c r="F165" s="3">
-        <v>25.225820729999999</v>
+        <v>25.15548832</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="3">
-        <v>9.1427519410000005E-2</v>
+        <v>8.9097704750000006E-2</v>
       </c>
       <c r="D166" s="3">
-        <v>0.12139869389999999</v>
+        <v>0.11962353520000001</v>
       </c>
       <c r="E166" s="3">
-        <v>0.15250438790000001</v>
+        <v>0.15072272380000001</v>
       </c>
       <c r="F166" s="3">
-        <v>25.15548832</v>
+        <v>25.757899120000001</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C167" s="3">
-        <v>8.9097704750000006E-2</v>
+        <v>9.4291578289999997E-2</v>
       </c>
       <c r="D167" s="3">
-        <v>0.11962353520000001</v>
+        <v>0.12576992209999999</v>
       </c>
       <c r="E167" s="3">
-        <v>0.15072272380000001</v>
+        <v>0.15956184479999999</v>
       </c>
       <c r="F167" s="3">
-        <v>25.757899120000001</v>
+        <v>25.94828137</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="3">
-        <v>9.4291578289999997E-2</v>
+        <v>9.1477326710000001E-2</v>
       </c>
       <c r="D168" s="3">
-        <v>0.12576992209999999</v>
+        <v>0.1218135736</v>
       </c>
       <c r="E168" s="3">
-        <v>0.15956184479999999</v>
+        <v>0.15374909319999999</v>
       </c>
       <c r="F168" s="3">
-        <v>25.94828137</v>
+        <v>25.56027405</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="3">
-        <v>9.1477326710000001E-2</v>
+        <v>9.6635275349999994E-2</v>
       </c>
       <c r="D169" s="3">
-        <v>0.1218135736</v>
+        <v>0.12967711169999999</v>
       </c>
       <c r="E169" s="3">
-        <v>0.15374909319999999</v>
+        <v>0.1627960356</v>
       </c>
       <c r="F169" s="3">
-        <v>25.56027405</v>
+        <v>25.50980637</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="3">
-        <v>9.6635275349999994E-2</v>
+        <v>0.1003076022</v>
       </c>
       <c r="D170" s="3">
-        <v>0.12967711169999999</v>
+        <v>0.13374787099999999</v>
       </c>
       <c r="E170" s="3">
-        <v>0.1627960356</v>
+        <v>0.16853998440000001</v>
       </c>
       <c r="F170" s="3">
-        <v>25.50980637</v>
+        <v>25.507838580000001</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C171" s="3">
-        <v>0.1003076022</v>
+        <v>9.7832906679999998E-2</v>
       </c>
       <c r="D171" s="3">
-        <v>0.13374787099999999</v>
+        <v>0.12974067710000001</v>
       </c>
       <c r="E171" s="3">
-        <v>0.16853998440000001</v>
+        <v>0.16320029359999999</v>
       </c>
       <c r="F171" s="3">
-        <v>25.507838580000001</v>
+        <v>25.191554549999999</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="3">
-        <v>9.7832906679999998E-2</v>
+        <v>9.6643161229999996E-2</v>
       </c>
       <c r="D172" s="3">
-        <v>0.12974067710000001</v>
+        <v>0.12958313539999999</v>
       </c>
       <c r="E172" s="3">
-        <v>0.16320029359999999</v>
+        <v>0.162370766</v>
       </c>
       <c r="F172" s="3">
-        <v>25.191554549999999</v>
+        <v>25.36117239</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="3">
-        <v>9.6643161229999996E-2</v>
+        <v>0.1004015221</v>
       </c>
       <c r="D173" s="3">
-        <v>0.12958313539999999</v>
+        <v>0.13316365220000001</v>
       </c>
       <c r="E173" s="3">
-        <v>0.162370766</v>
+        <v>0.16706739249999999</v>
       </c>
       <c r="F173" s="3">
-        <v>25.36117239</v>
+        <v>25.03155679</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C174" s="3">
-        <v>0.1004015221</v>
+        <v>9.0584524190000001E-2</v>
       </c>
       <c r="D174" s="3">
-        <v>0.13316365220000001</v>
+        <v>0.1209480914</v>
       </c>
       <c r="E174" s="3">
-        <v>0.16706739249999999</v>
+        <v>0.15232611730000001</v>
       </c>
       <c r="F174" s="3">
-        <v>25.03155679</v>
+        <v>25.524004739999999</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="3">
-        <v>9.0584524190000001E-2</v>
+        <v>0.1010148146</v>
       </c>
       <c r="D175" s="3">
-        <v>0.1209480914</v>
+        <v>0.13540703300000001</v>
       </c>
       <c r="E175" s="3">
-        <v>0.15232611730000001</v>
+        <v>0.17084164490000001</v>
       </c>
       <c r="F175" s="3">
-        <v>25.524004739999999</v>
+        <v>25.78404858</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="3">
-        <v>0.1010148146</v>
+        <v>0.101934336</v>
       </c>
       <c r="D176" s="3">
-        <v>0.13540703300000001</v>
+        <v>0.13563112229999999</v>
       </c>
       <c r="E176" s="3">
-        <v>0.17084164490000001</v>
+        <v>0.1701805247</v>
       </c>
       <c r="F176" s="3">
-        <v>25.78404858</v>
+        <v>25.158749520000001</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="3">
-        <v>0.101934336</v>
+        <v>9.9827568630000002E-2</v>
       </c>
       <c r="D177" s="3">
-        <v>0.13563112229999999</v>
+        <v>0.1337229784</v>
       </c>
       <c r="E177" s="3">
-        <v>0.1701805247</v>
+        <v>0.16866370889999999</v>
       </c>
       <c r="F177" s="3">
-        <v>25.158749520000001</v>
+        <v>25.73833647</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C178" s="3">
-        <v>9.9827568630000002E-2</v>
+        <v>9.8274200579999998E-2</v>
       </c>
       <c r="D178" s="3">
-        <v>0.1337229784</v>
+        <v>0.13248710729999999</v>
       </c>
       <c r="E178" s="3">
-        <v>0.16866370889999999</v>
+        <v>0.16701411090000001</v>
       </c>
       <c r="F178" s="3">
-        <v>25.73833647</v>
+        <v>25.942113070000001</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C179" s="3">
-        <v>9.8274200579999998E-2</v>
+        <v>9.1598227769999999E-2</v>
       </c>
       <c r="D179" s="3">
-        <v>0.13248710729999999</v>
+        <v>0.12239695320000001</v>
       </c>
       <c r="E179" s="3">
-        <v>0.16701411090000001</v>
+        <v>0.15578354329999999</v>
       </c>
       <c r="F179" s="3">
-        <v>25.942113070000001</v>
+        <v>26.22014429</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>9.1598227769999999E-2</v>
+        <v>0.1022355002</v>
       </c>
       <c r="D180" s="3">
-        <v>0.12239695320000001</v>
+        <v>0.13707236480000001</v>
       </c>
       <c r="E180" s="3">
-        <v>0.15578354329999999</v>
+        <v>0.1739307283</v>
       </c>
       <c r="F180" s="3">
-        <v>26.22014429</v>
+        <v>26.152327700000001</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3">
-        <v>0.1022355002</v>
+        <v>0.1067868481</v>
       </c>
       <c r="D181" s="3">
-        <v>0.13707236480000001</v>
+        <v>0.14338925850000001</v>
       </c>
       <c r="E181" s="3">
-        <v>0.1739307283</v>
+        <v>0.1807108922</v>
       </c>
       <c r="F181" s="3">
-        <v>26.152327700000001</v>
+        <v>25.777399519999999</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>0.1067868481</v>
+        <v>0.1050987459</v>
       </c>
       <c r="D182" s="3">
-        <v>0.14338925850000001</v>
+        <v>0.14012352759999999</v>
       </c>
       <c r="E182" s="3">
-        <v>0.1807108922</v>
+        <v>0.17702113050000001</v>
       </c>
       <c r="F182" s="3">
-        <v>25.777399519999999</v>
+        <v>25.663921640000002</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="3">
-        <v>0.1050987459</v>
+        <v>0.10653799830000001</v>
       </c>
       <c r="D183" s="3">
-        <v>0.14012352759999999</v>
+        <v>0.1412285066</v>
       </c>
       <c r="E183" s="3">
-        <v>0.17702113050000001</v>
+        <v>0.17759206459999999</v>
       </c>
       <c r="F183" s="3">
-        <v>25.663921640000002</v>
+        <v>25.155709699999999</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3">
-        <v>0.10653799830000001</v>
+        <v>0.1031414848</v>
       </c>
       <c r="D184" s="3">
-        <v>0.1412285066</v>
+        <v>0.1385321249</v>
       </c>
       <c r="E184" s="3">
-        <v>0.17759206459999999</v>
+        <v>0.17397422579999999</v>
       </c>
       <c r="F184" s="3">
-        <v>25.155709699999999</v>
+        <v>25.565456789999999</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>0.1031414848</v>
+        <v>0.1061980758</v>
       </c>
       <c r="D185" s="3">
-        <v>0.1385321249</v>
+        <v>0.14122605660000001</v>
       </c>
       <c r="E185" s="3">
-        <v>0.17397422579999999</v>
+        <v>0.17727261559999999</v>
       </c>
       <c r="F185" s="3">
-        <v>25.565456789999999</v>
+        <v>25.1633946</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C186" s="3">
-        <v>0.1061980758</v>
+        <v>0.10614279560000001</v>
       </c>
       <c r="D186" s="3">
-        <v>0.14122605660000001</v>
+        <v>0.14277523680000001</v>
       </c>
       <c r="E186" s="3">
-        <v>0.17727261559999999</v>
+        <v>0.18011306020000001</v>
       </c>
       <c r="F186" s="3">
-        <v>25.1633946</v>
+        <v>25.904444720000001</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="3">
-        <v>0.10614279560000001</v>
+        <v>0.10471092849999999</v>
       </c>
       <c r="D187" s="3">
-        <v>0.14277523680000001</v>
+        <v>0.1407446379</v>
       </c>
       <c r="E187" s="3">
-        <v>0.18011306020000001</v>
+        <v>0.17702855000000001</v>
       </c>
       <c r="F187" s="3">
-        <v>25.904444720000001</v>
+        <v>25.6910752</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="3">
-        <v>0.10471092849999999</v>
+        <v>0.1064836655</v>
       </c>
       <c r="D188" s="3">
-        <v>0.1407446379</v>
+        <v>0.14387031389999999</v>
       </c>
       <c r="E188" s="3">
-        <v>0.17702855000000001</v>
+        <v>0.18160447439999999</v>
       </c>
       <c r="F188" s="3">
-        <v>25.6910752</v>
+        <v>26.107126239999999</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C189" s="3">
-        <v>0.1064836655</v>
+        <v>0.1087530956</v>
       </c>
       <c r="D189" s="3">
-        <v>0.14387031389999999</v>
+        <v>0.14425888649999999</v>
       </c>
       <c r="E189" s="3">
-        <v>0.18160447439999999</v>
+        <v>0.18196490000000001</v>
       </c>
       <c r="F189" s="3">
-        <v>26.107126239999999</v>
+        <v>25.375145409999998</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="3">
-        <v>0.1087530956</v>
+        <v>0.1115769707</v>
       </c>
       <c r="D190" s="3">
-        <v>0.14425888649999999</v>
+        <v>0.15220922170000001</v>
       </c>
       <c r="E190" s="3">
-        <v>0.18196490000000001</v>
+        <v>0.19283281420000001</v>
       </c>
       <c r="F190" s="3">
-        <v>25.375145409999998</v>
+        <v>26.692155240000002</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C191" s="3">
-        <v>0.1115769707</v>
+        <v>0.1118541554</v>
       </c>
       <c r="D191" s="3">
-        <v>0.15220922170000001</v>
+        <v>0.14987189070000001</v>
       </c>
       <c r="E191" s="3">
-        <v>0.19283281420000001</v>
+        <v>0.18947880680000001</v>
       </c>
       <c r="F191" s="3">
-        <v>26.692155240000002</v>
+        <v>25.89700143</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C192" s="3">
-        <v>0.1118541554</v>
+        <v>0.1139292049</v>
       </c>
       <c r="D192" s="3">
-        <v>0.14987189070000001</v>
+        <v>0.1535374548</v>
       </c>
       <c r="E192" s="3">
-        <v>0.18947880680000001</v>
+        <v>0.19256045590000001</v>
       </c>
       <c r="F192" s="3">
-        <v>25.89700143</v>
+        <v>25.606537209999999</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="3">
-        <v>0.1139292049</v>
+        <v>0.1130624408</v>
       </c>
       <c r="D193" s="3">
-        <v>0.1535374548</v>
+        <v>0.1503664173</v>
       </c>
       <c r="E193" s="3">
-        <v>0.19256045590000001</v>
+        <v>0.18913341359999999</v>
       </c>
       <c r="F193" s="3">
-        <v>25.606537209999999</v>
+        <v>25.295200269999999</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C194" s="3">
-        <v>0.1130624408</v>
+        <v>0.1001792265</v>
       </c>
       <c r="D194" s="3">
-        <v>0.1503664173</v>
+        <v>0.13306396879999999</v>
       </c>
       <c r="E194" s="3">
-        <v>0.18913341359999999</v>
+        <v>0.1657637927</v>
       </c>
       <c r="F194" s="3">
-        <v>25.295200269999999</v>
+        <v>24.643999000000001</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C195" s="3">
-        <v>0.1001792265</v>
+        <v>0.1035270831</v>
       </c>
       <c r="D195" s="3">
-        <v>0.13306396879999999</v>
+        <v>0.13739113850000001</v>
       </c>
       <c r="E195" s="3">
-        <v>0.1657637927</v>
+        <v>0.17218123809999999</v>
       </c>
       <c r="F195" s="3">
-        <v>24.643999000000001</v>
+        <v>24.984928329999999</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C196" s="3">
-        <v>0.1035270831</v>
+        <v>0.1045546512</v>
       </c>
       <c r="D196" s="3">
-        <v>0.13739113850000001</v>
+        <v>0.13928841689999999</v>
       </c>
       <c r="E196" s="3">
-        <v>0.17218123809999999</v>
+        <v>0.17515065020000001</v>
       </c>
       <c r="F196" s="3">
-        <v>24.984928329999999</v>
+        <v>25.341661760000001</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3">
-        <v>0.1045546512</v>
+        <v>0.1113169321</v>
       </c>
       <c r="D197" s="3">
-        <v>0.13928841689999999</v>
+        <v>0.14984941969999999</v>
       </c>
       <c r="E197" s="3">
-        <v>0.17515065020000001</v>
+        <v>0.18982464339999999</v>
       </c>
       <c r="F197" s="3">
-        <v>25.341661760000001</v>
+        <v>26.195533990000001</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="3">
-        <v>0.1113169321</v>
+        <v>0.1096521968</v>
       </c>
       <c r="D198" s="3">
-        <v>0.14984941969999999</v>
+        <v>0.14781179480000001</v>
       </c>
       <c r="E198" s="3">
-        <v>0.18982464339999999</v>
+        <v>0.1875099278</v>
       </c>
       <c r="F198" s="3">
-        <v>26.195533990000001</v>
+        <v>26.336778840000001</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C199" s="3">
-        <v>0.1096521968</v>
+        <v>0.1094399177</v>
       </c>
       <c r="D199" s="3">
-        <v>0.14781179480000001</v>
+        <v>0.14789564190000001</v>
       </c>
       <c r="E199" s="3">
-        <v>0.1875099278</v>
+        <v>0.18762346069999999</v>
       </c>
       <c r="F199" s="3">
-        <v>26.336778840000001</v>
+        <v>26.43199692</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C200" s="3">
-        <v>0.1094399177</v>
+        <v>0.1143110671</v>
       </c>
       <c r="D200" s="3">
-        <v>0.14789564190000001</v>
+        <v>0.15487145920000001</v>
       </c>
       <c r="E200" s="3">
-        <v>0.18762346069999999</v>
+        <v>0.19600914459999999</v>
       </c>
       <c r="F200" s="3">
-        <v>26.43199692</v>
+        <v>26.376092100000001</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="3">
-        <v>0.1143110671</v>
+        <v>0.1084483201</v>
       </c>
       <c r="D201" s="3">
-        <v>0.15487145920000001</v>
+        <v>0.14499225499999999</v>
       </c>
       <c r="E201" s="3">
-        <v>0.19600914459999999</v>
+        <v>0.1826930759</v>
       </c>
       <c r="F201" s="3">
-        <v>26.376092100000001</v>
+        <v>25.603007470000001</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C202" s="3">
-        <v>0.1084483201</v>
+        <v>0.1122617928</v>
       </c>
       <c r="D202" s="3">
-        <v>0.14499225499999999</v>
+        <v>0.15326462369999999</v>
       </c>
       <c r="E202" s="3">
-        <v>0.1826930759</v>
+        <v>0.19637407470000001</v>
       </c>
       <c r="F202" s="3">
-        <v>25.603007470000001</v>
+        <v>27.440214149999999</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C203" s="3">
-        <v>0.1122617928</v>
+        <v>0.11163082000000001</v>
       </c>
       <c r="D203" s="3">
-        <v>0.15326462369999999</v>
+        <v>0.1496284326</v>
       </c>
       <c r="E203" s="3">
-        <v>0.19637407470000001</v>
+        <v>0.19009309429999999</v>
       </c>
       <c r="F203" s="3">
-        <v>27.440214149999999</v>
+        <v>26.219039030000001</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="3">
-        <v>0.11163082000000001</v>
+        <v>0.10503398999999999</v>
       </c>
       <c r="D204" s="3">
-        <v>0.1496284326</v>
+        <v>0.14160685840000001</v>
       </c>
       <c r="E204" s="3">
-        <v>0.19009309429999999</v>
+        <v>0.1794933927</v>
       </c>
       <c r="F204" s="3">
-        <v>26.219039030000001</v>
+        <v>26.290888559999999</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C205" s="3">
-        <v>0.10503398999999999</v>
+        <v>0.113370902</v>
       </c>
       <c r="D205" s="3">
-        <v>0.14160685840000001</v>
+        <v>0.1539580072</v>
       </c>
       <c r="E205" s="3">
-        <v>0.1794933927</v>
+        <v>0.1951324206</v>
       </c>
       <c r="F205" s="3">
-        <v>26.290888559999999</v>
+        <v>26.553188120000002</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3">
-        <v>0.113370902</v>
+        <v>0.1106763514</v>
       </c>
       <c r="D206" s="3">
-        <v>0.1539580072</v>
+        <v>0.14942463240000001</v>
       </c>
       <c r="E206" s="3">
-        <v>0.1951324206</v>
+        <v>0.1897571311</v>
       </c>
       <c r="F206" s="3">
-        <v>26.553188120000002</v>
+        <v>26.461761490000001</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C207" s="3">
-        <v>0.1106763514</v>
+        <v>0.1091266382</v>
       </c>
       <c r="D207" s="3">
-        <v>0.14942463240000001</v>
+        <v>0.14639540379999999</v>
       </c>
       <c r="E207" s="3">
-        <v>0.1897571311</v>
+        <v>0.18475461300000001</v>
       </c>
       <c r="F207" s="3">
-        <v>26.461761490000001</v>
+        <v>25.83003729</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C208" s="3">
-        <v>0.1091266382</v>
+        <v>0.1125211159</v>
       </c>
       <c r="D208" s="3">
-        <v>0.14639540379999999</v>
+        <v>0.15184283409999999</v>
       </c>
       <c r="E208" s="3">
-        <v>0.18475461300000001</v>
+        <v>0.1926462713</v>
       </c>
       <c r="F208" s="3">
-        <v>25.83003729</v>
+        <v>26.38423993</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="3">
-        <v>0.1125211159</v>
+        <v>0.11260948680000001</v>
       </c>
       <c r="D209" s="3">
-        <v>0.15184283409999999</v>
+        <v>0.15237901570000001</v>
       </c>
       <c r="E209" s="3">
-        <v>0.1926462713</v>
+        <v>0.1927475948</v>
       </c>
       <c r="F209" s="3">
-        <v>26.38423993</v>
+        <v>26.295650869999999</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210" s="3">
-        <v>0.11260948680000001</v>
+        <v>0.61130067440000002</v>
       </c>
       <c r="D210" s="3">
-        <v>0.15237901570000001</v>
+        <v>0.74106588100000004</v>
       </c>
       <c r="E210" s="3">
-        <v>0.1927475948</v>
+        <v>0.87081644650000001</v>
       </c>
       <c r="F210" s="3">
-        <v>26.295650869999999</v>
+        <v>17.50962895</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="3">
-        <v>0.61130067440000002</v>
+        <v>0.62949180189999998</v>
       </c>
       <c r="D211" s="3">
-        <v>0.74106588100000004</v>
+        <v>0.75989145449999995</v>
       </c>
       <c r="E211" s="3">
-        <v>0.87081644650000001</v>
+        <v>0.89443404130000004</v>
       </c>
       <c r="F211" s="3">
-        <v>17.50962895</v>
+        <v>17.4329003</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C212" s="3">
-        <v>0.62949180189999998</v>
+        <v>0.63606124210000003</v>
       </c>
       <c r="D212" s="3">
-        <v>0.75989145449999995</v>
+        <v>0.76626129580000002</v>
       </c>
       <c r="E212" s="3">
-        <v>0.89443404130000004</v>
+        <v>0.89834785350000002</v>
       </c>
       <c r="F212" s="3">
-        <v>17.4329003</v>
+        <v>17.114697880000001</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C213" s="3">
-        <v>0.63606124210000003</v>
+        <v>0.64552554110000004</v>
       </c>
       <c r="D213" s="3">
-        <v>0.76626129580000002</v>
+        <v>0.77976861450000001</v>
       </c>
       <c r="E213" s="3">
-        <v>0.89834785350000002</v>
+        <v>0.91691922780000001</v>
       </c>
       <c r="F213" s="3">
-        <v>17.114697880000001</v>
+        <v>17.402193520000001</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="3">
-        <v>0.64552554110000004</v>
+        <v>0.64222911559999996</v>
       </c>
       <c r="D214" s="3">
-        <v>0.77976861450000001</v>
+        <v>0.77840386090000002</v>
       </c>
       <c r="E214" s="3">
-        <v>0.91691922780000001</v>
+        <v>0.91365478980000003</v>
       </c>
       <c r="F214" s="3">
-        <v>17.402193520000001</v>
+        <v>17.434758989999999</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="3">
-        <v>0.64222911559999996</v>
+        <v>0.66608092829999999</v>
       </c>
       <c r="D215" s="3">
-        <v>0.77840386090000002</v>
+        <v>0.80159619390000003</v>
       </c>
       <c r="E215" s="3">
-        <v>0.91365478980000003</v>
+        <v>0.9392906996</v>
       </c>
       <c r="F215" s="3">
-        <v>17.434758989999999</v>
+        <v>17.04160856</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="3">
-        <v>0.66608092829999999</v>
+        <v>0.64586078300000005</v>
       </c>
       <c r="D216" s="3">
-        <v>0.80159619390000003</v>
+        <v>0.78357709009999998</v>
       </c>
       <c r="E216" s="3">
-        <v>0.9392906996</v>
+        <v>0.92127384030000004</v>
       </c>
       <c r="F216" s="3">
-        <v>17.04160856</v>
+        <v>17.574088159999999</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="3">
-        <v>0.64586078300000005</v>
+        <v>0.66902325029999998</v>
       </c>
       <c r="D217" s="3">
-        <v>0.78357709009999998</v>
+        <v>0.81064901850000004</v>
       </c>
       <c r="E217" s="3">
-        <v>0.92127384030000004</v>
+        <v>0.95568772010000003</v>
       </c>
       <c r="F217" s="3">
-        <v>17.574088159999999</v>
+        <v>17.681170470000001</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C218" s="3">
-        <v>0.66902325029999998</v>
+        <v>0.66752898790000004</v>
       </c>
       <c r="D218" s="3">
-        <v>0.81064901850000004</v>
+        <v>0.80581168969999994</v>
       </c>
       <c r="E218" s="3">
-        <v>0.95568772010000003</v>
+        <v>0.94435486499999999</v>
       </c>
       <c r="F218" s="3">
-        <v>17.681170470000001</v>
+        <v>17.176834280000001</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C219" s="3">
-        <v>0.66752898790000004</v>
+        <v>0.68993248659999995</v>
       </c>
       <c r="D219" s="3">
-        <v>0.80581168969999994</v>
+        <v>0.83195028230000001</v>
       </c>
       <c r="E219" s="3">
-        <v>0.94435486499999999</v>
+        <v>0.97670053489999997</v>
       </c>
       <c r="F219" s="3">
-        <v>17.176834280000001</v>
+        <v>17.23468664</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C220" s="3">
-        <v>0.68993248659999995</v>
+        <v>0.67413627460000003</v>
       </c>
       <c r="D220" s="3">
-        <v>0.83195028230000001</v>
+        <v>0.81358876469999997</v>
       </c>
       <c r="E220" s="3">
-        <v>0.97670053489999997</v>
+        <v>0.95574802869999997</v>
       </c>
       <c r="F220" s="3">
-        <v>17.23468664</v>
+        <v>17.306762729999999</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C221" s="3">
-        <v>0.67413627460000003</v>
+        <v>0.69447665089999999</v>
       </c>
       <c r="D221" s="3">
-        <v>0.81358876469999997</v>
+        <v>0.83935266500000005</v>
       </c>
       <c r="E221" s="3">
-        <v>0.95574802869999997</v>
+        <v>0.97842491769999995</v>
       </c>
       <c r="F221" s="3">
-        <v>17.306762729999999</v>
+        <v>16.91471765</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="3">
-        <v>0.69447665089999999</v>
+        <v>0.69443003079999999</v>
       </c>
       <c r="D222" s="3">
-        <v>0.83935266500000005</v>
+        <v>0.8324833988</v>
       </c>
       <c r="E222" s="3">
-        <v>0.97842491769999995</v>
+        <v>0.97441399930000006</v>
       </c>
       <c r="F222" s="3">
-        <v>16.91471765</v>
+        <v>16.816189300000001</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C223" s="3">
-        <v>0.69443003079999999</v>
+        <v>0.67387226300000003</v>
       </c>
       <c r="D223" s="3">
-        <v>0.8324833988</v>
+        <v>0.81149180750000005</v>
       </c>
       <c r="E223" s="3">
-        <v>0.97441399930000006</v>
+        <v>0.95069527359999995</v>
       </c>
       <c r="F223" s="3">
-        <v>16.816189300000001</v>
+        <v>17.056426699999999</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="3">
-        <v>0.67387226300000003</v>
+        <v>0.70021526499999998</v>
       </c>
       <c r="D224" s="3">
-        <v>0.81149180750000005</v>
+        <v>0.84540866940000003</v>
       </c>
       <c r="E224" s="3">
-        <v>0.95069527359999995</v>
+        <v>0.9914100388</v>
       </c>
       <c r="F224" s="3">
-        <v>17.056426699999999</v>
+        <v>17.222130809999999</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="3">
-        <v>0.70021526499999998</v>
+        <v>0.70031517499999996</v>
       </c>
       <c r="D225" s="3">
-        <v>0.84540866940000003</v>
+        <v>0.84022230180000002</v>
       </c>
       <c r="E225" s="3">
-        <v>0.9914100388</v>
+        <v>0.98470458589999998</v>
       </c>
       <c r="F225" s="3">
-        <v>17.222130809999999</v>
+        <v>16.92346242</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="3">
-        <v>0.70031517499999996</v>
+        <v>0.64841535729999999</v>
       </c>
       <c r="D226" s="3">
-        <v>0.84022230180000002</v>
+        <v>0.78370787149999999</v>
       </c>
       <c r="E226" s="3">
-        <v>0.98470458589999998</v>
+        <v>0.92318353450000001</v>
       </c>
       <c r="F226" s="3">
-        <v>16.92346242</v>
+        <v>17.530012589999998</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C227" s="3">
-        <v>0.64841535729999999</v>
+        <v>0.70647696039999996</v>
       </c>
       <c r="D227" s="3">
-        <v>0.78370787149999999</v>
+        <v>0.85011486940000003</v>
       </c>
       <c r="E227" s="3">
-        <v>0.92318353450000001</v>
+        <v>0.99845006589999996</v>
       </c>
       <c r="F227" s="3">
-        <v>17.530012589999998</v>
+        <v>17.172567860000001</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="3">
-        <v>0.70647696039999996</v>
+        <v>0.70704296860000004</v>
       </c>
       <c r="D228" s="3">
-        <v>0.85011486940000003</v>
+        <v>0.85277572700000004</v>
       </c>
       <c r="E228" s="3">
-        <v>0.99845006589999996</v>
+        <v>0.9994742579</v>
       </c>
       <c r="F228" s="3">
-        <v>17.172567860000001</v>
+        <v>17.145849720000001</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C229" s="3">
-        <v>0.70704296860000004</v>
+        <v>0.71514708329999999</v>
       </c>
       <c r="D229" s="3">
-        <v>0.85277572700000004</v>
+        <v>0.86016171929999996</v>
       </c>
       <c r="E229" s="3">
-        <v>0.9994742579</v>
+        <v>1.0059882090000001</v>
       </c>
       <c r="F229" s="3">
-        <v>17.145849720000001</v>
+        <v>16.90618864</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="3">
-        <v>0.71514708329999999</v>
+        <v>0.71328295519999996</v>
       </c>
       <c r="D230" s="3">
-        <v>0.86016171929999996</v>
+        <v>0.8609917681</v>
       </c>
       <c r="E230" s="3">
-        <v>1.0059882090000001</v>
+        <v>1.0126605980000001</v>
       </c>
       <c r="F230" s="3">
-        <v>16.90618864</v>
+        <v>17.38562748</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C231" s="3">
-        <v>0.71328295519999996</v>
+        <v>0.67752412259999995</v>
       </c>
       <c r="D231" s="3">
-        <v>0.8609917681</v>
+        <v>0.82332319450000002</v>
       </c>
       <c r="E231" s="3">
-        <v>1.0126605980000001</v>
+        <v>0.9723175503</v>
       </c>
       <c r="F231" s="3">
-        <v>17.38562748</v>
+        <v>17.902655339999999</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="3">
-        <v>0.67752412259999995</v>
+        <v>0.72599873979999996</v>
       </c>
       <c r="D232" s="3">
-        <v>0.82332319450000002</v>
+        <v>0.87504929980000001</v>
       </c>
       <c r="E232" s="3">
-        <v>0.9723175503</v>
+        <v>1.0266878450000001</v>
       </c>
       <c r="F232" s="3">
-        <v>17.902655339999999</v>
+        <v>17.181266539999999</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="3">
-        <v>0.72599873979999996</v>
+        <v>0.7399639737</v>
       </c>
       <c r="D233" s="3">
-        <v>0.87504929980000001</v>
+        <v>0.89074421140000004</v>
       </c>
       <c r="E233" s="3">
-        <v>1.0266878450000001</v>
+        <v>1.0439509069999999</v>
       </c>
       <c r="F233" s="3">
-        <v>17.181266539999999</v>
+        <v>17.063649130000002</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="3">
-        <v>0.7399639737</v>
+        <v>0.74524640119999996</v>
       </c>
       <c r="D234" s="3">
-        <v>0.89074421140000004</v>
+        <v>0.89636297890000005</v>
       </c>
       <c r="E234" s="3">
-        <v>1.0439509069999999</v>
+        <v>1.0529588830000001</v>
       </c>
       <c r="F234" s="3">
-        <v>17.063649130000002</v>
+        <v>17.164501919999999</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="3">
-        <v>0.74524640119999996</v>
+        <v>0.74180959369999999</v>
       </c>
       <c r="D235" s="3">
-        <v>0.89636297890000005</v>
+        <v>0.89489705890000004</v>
       </c>
       <c r="E235" s="3">
-        <v>1.0529588830000001</v>
+        <v>1.0500318129999999</v>
       </c>
       <c r="F235" s="3">
-        <v>17.164501919999999</v>
+        <v>17.221099110000001</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="3">
-        <v>0.74180959369999999</v>
+        <v>0.72779876480000005</v>
       </c>
       <c r="D236" s="3">
-        <v>0.89489705890000004</v>
+        <v>0.88007414790000005</v>
       </c>
       <c r="E236" s="3">
-        <v>1.0500318129999999</v>
+        <v>1.0344864789999999</v>
       </c>
       <c r="F236" s="3">
-        <v>17.221099110000001</v>
+        <v>17.423970180000001</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C237" s="3">
-        <v>0.72779876480000005</v>
+        <v>0.73642955379999997</v>
       </c>
       <c r="D237" s="3">
-        <v>0.88007414790000005</v>
+        <v>0.89576003270000004</v>
       </c>
       <c r="E237" s="3">
-        <v>1.0344864789999999</v>
+        <v>1.056596474</v>
       </c>
       <c r="F237" s="3">
-        <v>17.423970180000001</v>
+        <v>17.87124391</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="3">
-        <v>0.73642955379999997</v>
+        <v>0.74517468740000004</v>
       </c>
       <c r="D238" s="3">
-        <v>0.89576003270000004</v>
+        <v>0.90198218519999995</v>
       </c>
       <c r="E238" s="3">
-        <v>1.056596474</v>
+        <v>1.0629898360000001</v>
       </c>
       <c r="F238" s="3">
-        <v>17.87124391</v>
+        <v>17.617595659999999</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3">
-        <v>0.74517468740000004</v>
+        <v>0.71829979820000001</v>
       </c>
       <c r="D239" s="3">
-        <v>0.90198218519999995</v>
+        <v>0.87567201520000004</v>
       </c>
       <c r="E239" s="3">
-        <v>1.0629898360000001</v>
+        <v>1.0353801199999999</v>
       </c>
       <c r="F239" s="3">
-        <v>17.617595659999999</v>
+        <v>18.10497063</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="3">
-        <v>0.71829979820000001</v>
+        <v>0.70592325850000004</v>
       </c>
       <c r="D240" s="3">
-        <v>0.87567201520000004</v>
+        <v>0.85923853839999997</v>
       </c>
       <c r="E240" s="3">
-        <v>1.0353801199999999</v>
+        <v>1.0154849880000001</v>
       </c>
       <c r="F240" s="3">
-        <v>18.10497063</v>
+        <v>18.013724710000002</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C241" s="3">
-        <v>0.70592325850000004</v>
+        <v>0.76061620789999995</v>
       </c>
       <c r="D241" s="3">
-        <v>0.85923853839999997</v>
+        <v>0.91865993840000004</v>
       </c>
       <c r="E241" s="3">
-        <v>1.0154849880000001</v>
+        <v>1.084680761</v>
       </c>
       <c r="F241" s="3">
-        <v>18.013724710000002</v>
+        <v>17.63789512</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C242" s="3">
-        <v>0.76061620789999995</v>
+        <v>0.69889240220000004</v>
       </c>
       <c r="D242" s="3">
-        <v>0.91865993840000004</v>
+        <v>0.86147240820000004</v>
       </c>
       <c r="E242" s="3">
-        <v>1.084680761</v>
+        <v>1.0219171339999999</v>
       </c>
       <c r="F242" s="3">
-        <v>17.63789512</v>
+        <v>18.748408449999999</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C243" s="3">
-        <v>0.69889240220000004</v>
+        <v>0.72339796150000002</v>
       </c>
       <c r="D243" s="3">
-        <v>0.86147240820000004</v>
+        <v>0.88373033249999999</v>
       </c>
       <c r="E243" s="3">
-        <v>1.0219171339999999</v>
+        <v>1.0525510149999999</v>
       </c>
       <c r="F243" s="3">
-        <v>18.748408449999999</v>
+        <v>18.622935160000001</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C244" s="3">
-        <v>0.72339796150000002</v>
+        <v>0.7602146957</v>
       </c>
       <c r="D244" s="3">
-        <v>0.88373033249999999</v>
+        <v>0.91432475469999996</v>
       </c>
       <c r="E244" s="3">
-        <v>1.0525510149999999</v>
+        <v>1.072434224</v>
       </c>
       <c r="F244" s="3">
-        <v>18.622935160000001</v>
+        <v>17.073776370000001</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C245" s="3">
-        <v>0.7602146957</v>
+        <v>0.76822487669999995</v>
       </c>
       <c r="D245" s="3">
-        <v>0.91432475469999996</v>
+        <v>0.9299598899</v>
       </c>
       <c r="E245" s="3">
-        <v>1.072434224</v>
+        <v>1.093620832</v>
       </c>
       <c r="F245" s="3">
-        <v>17.073776370000001</v>
+        <v>17.49516075</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C246" s="3">
-        <v>0.76822487669999995</v>
+        <v>0.7236489693</v>
       </c>
       <c r="D246" s="3">
-        <v>0.9299598899</v>
+        <v>0.88117898169999997</v>
       </c>
       <c r="E246" s="3">
-        <v>1.093620832</v>
+        <v>1.0409849840000001</v>
       </c>
       <c r="F246" s="3">
-        <v>17.49516075</v>
+        <v>18.00633135</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C247" s="3">
-        <v>0.7236489693</v>
+        <v>0.75655125950000002</v>
       </c>
       <c r="D247" s="3">
-        <v>0.88117898169999997</v>
+        <v>0.91651892209999997</v>
       </c>
       <c r="E247" s="3">
-        <v>1.0409849840000001</v>
+        <v>1.0819567080000001</v>
       </c>
       <c r="F247" s="3">
-        <v>18.00633135</v>
+        <v>17.752249320000001</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="3">
-        <v>0.75655125950000002</v>
+        <v>0.72481759950000002</v>
       </c>
       <c r="D248" s="3">
-        <v>0.91651892209999997</v>
+        <v>0.8834904079</v>
       </c>
       <c r="E248" s="3">
-        <v>1.0819567080000001</v>
+        <v>1.045090874</v>
       </c>
       <c r="F248" s="3">
-        <v>17.752249320000001</v>
+        <v>18.12545283</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="3">
-        <v>0.72481759950000002</v>
+        <v>0.73777696820000005</v>
       </c>
       <c r="D249" s="3">
-        <v>0.8834904079</v>
+        <v>0.89690003389999995</v>
       </c>
       <c r="E249" s="3">
-        <v>1.045090874</v>
+        <v>1.0611571209999999</v>
       </c>
       <c r="F249" s="3">
-        <v>18.12545283</v>
+        <v>18.02765866</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="3">
-        <v>0.73777696820000005</v>
+        <v>0.7258828786</v>
       </c>
       <c r="D250" s="3">
-        <v>0.89690003389999995</v>
+        <v>0.88594811179999999</v>
       </c>
       <c r="E250" s="3">
-        <v>1.0611571209999999</v>
+        <v>1.0453258379999999</v>
       </c>
       <c r="F250" s="3">
-        <v>18.02765866</v>
+        <v>18.02831085</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C251" s="3">
-        <v>0.7258828786</v>
+        <v>0.73826368440000001</v>
       </c>
       <c r="D251" s="3">
-        <v>0.88594811179999999</v>
+        <v>0.90028561669999996</v>
       </c>
       <c r="E251" s="3">
-        <v>1.0453258379999999</v>
+        <v>1.0633032440000001</v>
       </c>
       <c r="F251" s="3">
-        <v>18.02831085</v>
+        <v>18.052024459999998</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C252" s="3">
-        <v>0.73826368440000001</v>
+        <v>0.75812398889999999</v>
       </c>
       <c r="D252" s="3">
-        <v>0.90028561669999996</v>
+        <v>0.91947081689999999</v>
       </c>
       <c r="E252" s="3">
-        <v>1.0633032440000001</v>
+        <v>1.0847324140000001</v>
       </c>
       <c r="F252" s="3">
-        <v>18.052024459999998</v>
+        <v>17.760673830000002</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C253" s="3">
-        <v>0.75812398889999999</v>
+        <v>0.71925250559999998</v>
       </c>
       <c r="D253" s="3">
-        <v>0.91947081689999999</v>
+        <v>0.87700700990000002</v>
       </c>
       <c r="E253" s="3">
-        <v>1.0847324140000001</v>
+        <v>1.0354157129999999</v>
       </c>
       <c r="F253" s="3">
-        <v>17.760673830000002</v>
+        <v>18.02512428</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C254" s="3">
-        <v>0.71925250559999998</v>
+        <v>0.70122443000000001</v>
       </c>
       <c r="D254" s="3">
-        <v>0.87700700990000002</v>
+        <v>0.85155310819999996</v>
       </c>
       <c r="E254" s="3">
-        <v>1.0354157129999999</v>
+        <v>1.008313383</v>
       </c>
       <c r="F254" s="3">
-        <v>18.02512428</v>
+        <v>18.031109860000001</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C255" s="3">
-        <v>0.70122443000000001</v>
+        <v>0.72862775229999999</v>
       </c>
       <c r="D255" s="3">
-        <v>0.85155310819999996</v>
+        <v>0.8819591242</v>
       </c>
       <c r="E255" s="3">
-        <v>1.008313383</v>
+        <v>1.0384070000000001</v>
       </c>
       <c r="F255" s="3">
-        <v>18.031109860000001</v>
+        <v>17.561995719999999</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C256" s="3">
-        <v>0.72862775229999999</v>
+        <v>0.71584648920000005</v>
       </c>
       <c r="D256" s="3">
-        <v>0.8819591242</v>
+        <v>0.87372733120000001</v>
       </c>
       <c r="E256" s="3">
-        <v>1.0384070000000001</v>
+        <v>1.032734848</v>
       </c>
       <c r="F256" s="3">
-        <v>17.561995719999999</v>
+        <v>18.134282160000001</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="3">
-        <v>0.71584648920000005</v>
+        <v>0.73997578659999996</v>
       </c>
       <c r="D257" s="3">
-        <v>0.87372733120000001</v>
+        <v>0.89904019099999999</v>
       </c>
       <c r="E257" s="3">
-        <v>1.032734848</v>
+        <v>1.060684014</v>
       </c>
       <c r="F257" s="3">
-        <v>18.134282160000001</v>
+        <v>17.836145160000001</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C258" s="3">
-        <v>0.73997578659999996</v>
+        <v>0.73662479059999997</v>
       </c>
       <c r="D258" s="3">
-        <v>0.89904019099999999</v>
+        <v>0.8950067451</v>
       </c>
       <c r="E258" s="3">
-        <v>1.060684014</v>
+        <v>1.0551909960000001</v>
       </c>
       <c r="F258" s="3">
-        <v>17.836145160000001</v>
+        <v>17.796860580000001</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="3">
-        <v>0.73662479059999997</v>
+        <v>0.73304883109999996</v>
       </c>
       <c r="D259" s="3">
-        <v>0.8950067451</v>
+        <v>0.8910758996</v>
       </c>
       <c r="E259" s="3">
-        <v>1.0551909960000001</v>
+        <v>1.050978535</v>
       </c>
       <c r="F259" s="3">
-        <v>17.796860580000001</v>
+        <v>17.839653389999999</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C260" s="3">
-        <v>0.73304883109999996</v>
+        <v>0.74912471439999995</v>
       </c>
       <c r="D260" s="3">
-        <v>0.8910758996</v>
+        <v>0.90485501160000004</v>
       </c>
       <c r="E260" s="3">
-        <v>1.050978535</v>
+        <v>1.0625580189999999</v>
       </c>
       <c r="F260" s="3">
-        <v>17.839653389999999</v>
+        <v>17.31953189</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C261" s="3">
-        <v>0.74912471439999995</v>
+        <v>0.75071250749999996</v>
       </c>
       <c r="D261" s="3">
-        <v>0.90485501160000004</v>
+        <v>0.90519243039999997</v>
       </c>
       <c r="E261" s="3">
-        <v>1.0625580189999999</v>
+        <v>1.068002033</v>
       </c>
       <c r="F261" s="3">
-        <v>17.31953189</v>
+        <v>17.526081489999999</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C262" s="3">
-        <v>0.75071250749999996</v>
+        <v>0.86426119320000006</v>
       </c>
       <c r="D262" s="3">
-        <v>0.90519243039999997</v>
+        <v>1.015697114</v>
       </c>
       <c r="E262" s="3">
-        <v>1.068002033</v>
+        <v>1.1732016119999999</v>
       </c>
       <c r="F262" s="3">
-        <v>17.526081489999999</v>
+        <v>15.20829458</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C263" s="3">
-        <v>0.86426119320000006</v>
+        <v>0.90792069070000003</v>
       </c>
       <c r="D263" s="3">
-        <v>1.015697114</v>
+        <v>1.0661596099999999</v>
       </c>
       <c r="E263" s="3">
-        <v>1.1732016119999999</v>
+        <v>1.2307746079999999</v>
       </c>
       <c r="F263" s="3">
-        <v>15.20829458</v>
+        <v>15.14097488</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C264" s="3">
-        <v>0.90792069070000003</v>
+        <v>0.92392166170000001</v>
       </c>
       <c r="D264" s="3">
-        <v>1.0661596099999999</v>
+        <v>1.0877654130000001</v>
       </c>
       <c r="E264" s="3">
-        <v>1.2307746079999999</v>
+        <v>1.2554063070000001</v>
       </c>
       <c r="F264" s="3">
-        <v>15.14097488</v>
+        <v>15.236954620000001</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C265" s="3">
-        <v>0.92392166170000001</v>
+        <v>0.9423260658</v>
       </c>
       <c r="D265" s="3">
-        <v>1.0877654130000001</v>
+        <v>1.11352754</v>
       </c>
       <c r="E265" s="3">
-        <v>1.2554063070000001</v>
+        <v>1.2849382300000001</v>
       </c>
       <c r="F265" s="3">
-        <v>15.236954620000001</v>
+        <v>15.38409029</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C266" s="3">
-        <v>0.9423260658</v>
+        <v>0.92687031139999998</v>
       </c>
       <c r="D266" s="3">
-        <v>1.11352754</v>
+        <v>1.0900343219999999</v>
       </c>
       <c r="E266" s="3">
-        <v>1.2849382300000001</v>
+        <v>1.25868325</v>
       </c>
       <c r="F266" s="3">
-        <v>15.38409029</v>
+        <v>15.220297739999999</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C267" s="3">
-        <v>0.92687031139999998</v>
+        <v>0.95747838330000001</v>
       </c>
       <c r="D267" s="3">
-        <v>1.0900343219999999</v>
+        <v>1.1251948279999999</v>
       </c>
       <c r="E267" s="3">
-        <v>1.25868325</v>
+        <v>1.294517884</v>
       </c>
       <c r="F267" s="3">
-        <v>15.220297739999999</v>
+        <v>14.976939659999999</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C268" s="3">
-        <v>0.95747838330000001</v>
+        <v>0.93075579090000005</v>
       </c>
       <c r="D268" s="3">
-        <v>1.1251948279999999</v>
+        <v>1.094878926</v>
       </c>
       <c r="E268" s="3">
-        <v>1.294517884</v>
+        <v>1.2581764959999999</v>
       </c>
       <c r="F268" s="3">
-        <v>14.976939659999999</v>
+        <v>14.95237043</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C269" s="3">
-        <v>0.93075579090000005</v>
+        <v>0.95967482319999997</v>
       </c>
       <c r="D269" s="3">
-        <v>1.094878926</v>
+        <v>1.132593586</v>
       </c>
       <c r="E269" s="3">
-        <v>1.2581764959999999</v>
+        <v>1.3055353080000001</v>
       </c>
       <c r="F269" s="3">
-        <v>14.95237043</v>
+        <v>15.26851682</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C270" s="3">
-        <v>0.95967482319999997</v>
+        <v>0.96839333350000001</v>
       </c>
       <c r="D270" s="3">
-        <v>1.132593586</v>
+        <v>1.1420873389999999</v>
       </c>
       <c r="E270" s="3">
-        <v>1.3055353080000001</v>
+        <v>1.3188420190000001</v>
       </c>
       <c r="F270" s="3">
-        <v>15.26851682</v>
+        <v>15.34246433</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C271" s="3">
-        <v>0.96839333350000001</v>
+        <v>0.99497442329999997</v>
       </c>
       <c r="D271" s="3">
-        <v>1.1420873389999999</v>
+        <v>1.1684627299999999</v>
       </c>
       <c r="E271" s="3">
-        <v>1.3188420190000001</v>
+        <v>1.343531048</v>
       </c>
       <c r="F271" s="3">
-        <v>15.34246433</v>
+        <v>14.91517939</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C272" s="3">
-        <v>0.99497442329999997</v>
+        <v>0.99089280400000002</v>
       </c>
       <c r="D272" s="3">
-        <v>1.1684627299999999</v>
+        <v>1.1631630559999999</v>
       </c>
       <c r="E272" s="3">
-        <v>1.343531048</v>
+        <v>1.3372490930000001</v>
       </c>
       <c r="F272" s="3">
-        <v>14.91517939</v>
+        <v>14.888552689999999</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C273" s="3">
-        <v>0.99089280400000002</v>
+        <v>1.0183389920000001</v>
       </c>
       <c r="D273" s="3">
-        <v>1.1631630559999999</v>
+        <v>1.2015553430000001</v>
       </c>
       <c r="E273" s="3">
-        <v>1.3372490930000001</v>
+        <v>1.382712714</v>
       </c>
       <c r="F273" s="3">
-        <v>14.888552689999999</v>
+        <v>15.16258592</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C274" s="3">
-        <v>1.0183389920000001</v>
+        <v>1.018437622</v>
       </c>
       <c r="D274" s="3">
-        <v>1.2015553430000001</v>
+        <v>1.190635434</v>
       </c>
       <c r="E274" s="3">
-        <v>1.382712714</v>
+        <v>1.3656067329999999</v>
       </c>
       <c r="F274" s="3">
-        <v>15.16258592</v>
+        <v>14.57915249</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C275" s="3">
-        <v>1.018437622</v>
+        <v>0.98026201369999999</v>
       </c>
       <c r="D275" s="3">
-        <v>1.190635434</v>
+        <v>1.144974414</v>
       </c>
       <c r="E275" s="3">
-        <v>1.3656067329999999</v>
+        <v>1.312133038</v>
       </c>
       <c r="F275" s="3">
-        <v>14.57915249</v>
+        <v>14.49250833</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C276" s="3">
-        <v>0.98026201369999999</v>
+        <v>1.007888345</v>
       </c>
       <c r="D276" s="3">
-        <v>1.144974414</v>
+        <v>1.1890667939999999</v>
       </c>
       <c r="E276" s="3">
-        <v>1.312133038</v>
+        <v>1.3663495370000001</v>
       </c>
       <c r="F276" s="3">
-        <v>14.49250833</v>
+        <v>15.07321514</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C277" s="3">
-        <v>1.007888345</v>
+        <v>1.015222488</v>
       </c>
       <c r="D277" s="3">
-        <v>1.1890667939999999</v>
+        <v>1.191502171</v>
       </c>
       <c r="E277" s="3">
-        <v>1.3663495370000001</v>
+        <v>1.3675263049999999</v>
       </c>
       <c r="F277" s="3">
-        <v>15.07321514</v>
+        <v>14.784019130000001</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C278" s="3">
-        <v>1.015222488</v>
+        <v>0.92650929100000001</v>
       </c>
       <c r="D278" s="3">
-        <v>1.191502171</v>
+        <v>1.091531297</v>
       </c>
       <c r="E278" s="3">
-        <v>1.3675263049999999</v>
+        <v>1.258033932</v>
       </c>
       <c r="F278" s="3">
-        <v>14.784019130000001</v>
+        <v>15.18621782</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C279" s="3">
-        <v>0.92650929100000001</v>
+        <v>1.010951113</v>
       </c>
       <c r="D279" s="3">
-        <v>1.091531297</v>
+        <v>1.192077327</v>
       </c>
       <c r="E279" s="3">
-        <v>1.258033932</v>
+        <v>1.372288779</v>
       </c>
       <c r="F279" s="3">
-        <v>15.18621782</v>
+        <v>15.15579812</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C280" s="3">
-        <v>1.010951113</v>
+        <v>1.019416004</v>
       </c>
       <c r="D280" s="3">
-        <v>1.192077327</v>
+        <v>1.1909908389999999</v>
       </c>
       <c r="E280" s="3">
-        <v>1.372288779</v>
+        <v>1.3663959210000001</v>
       </c>
       <c r="F280" s="3">
-        <v>15.15579812</v>
+        <v>14.5668592</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C281" s="3">
-        <v>1.019416004</v>
+        <v>1.033132288</v>
       </c>
       <c r="D281" s="3">
-        <v>1.1909908389999999</v>
+        <v>1.213669431</v>
       </c>
       <c r="E281" s="3">
-        <v>1.3663959210000001</v>
+        <v>1.3956554779999999</v>
       </c>
       <c r="F281" s="3">
-        <v>14.5668592</v>
+        <v>14.935005370000001</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C282" s="3">
-        <v>1.033132288</v>
+        <v>1.024007951</v>
       </c>
       <c r="D282" s="3">
-        <v>1.213669431</v>
+        <v>1.210352951</v>
       </c>
       <c r="E282" s="3">
-        <v>1.3956554779999999</v>
+        <v>1.3907746729999999</v>
       </c>
       <c r="F282" s="3">
-        <v>14.935005370000001</v>
+        <v>15.15123015</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C283" s="3">
-        <v>1.024007951</v>
+        <v>0.97377016270000005</v>
       </c>
       <c r="D283" s="3">
-        <v>1.210352951</v>
+        <v>1.152777191</v>
       </c>
       <c r="E283" s="3">
-        <v>1.3907746729999999</v>
+        <v>1.3354619640000001</v>
       </c>
       <c r="F283" s="3">
-        <v>15.15123015</v>
+        <v>15.68784516</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C284" s="3">
-        <v>0.97377016270000005</v>
+        <v>1.0538933239999999</v>
       </c>
       <c r="D284" s="3">
-        <v>1.152777191</v>
+        <v>1.239586418</v>
       </c>
       <c r="E284" s="3">
-        <v>1.3354619640000001</v>
+        <v>1.424194411</v>
       </c>
       <c r="F284" s="3">
-        <v>15.68784516</v>
+        <v>14.93647728</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C285" s="3">
-        <v>1.0538933239999999</v>
+        <v>1.0710007050000001</v>
       </c>
       <c r="D285" s="3">
-        <v>1.239586418</v>
+        <v>1.2533505170000001</v>
       </c>
       <c r="E285" s="3">
-        <v>1.424194411</v>
+        <v>1.439611413</v>
       </c>
       <c r="F285" s="3">
-        <v>14.93647728</v>
+        <v>14.7050128</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C286" s="3">
-        <v>1.0710007050000001</v>
+        <v>1.0779001749999999</v>
       </c>
       <c r="D286" s="3">
-        <v>1.2533505170000001</v>
+        <v>1.270192929</v>
       </c>
       <c r="E286" s="3">
-        <v>1.439611413</v>
+        <v>1.4651605130000001</v>
       </c>
       <c r="F286" s="3">
-        <v>14.7050128</v>
+        <v>15.244154200000001</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C287" s="3">
-        <v>1.0779001749999999</v>
+        <v>1.0589394299999999</v>
       </c>
       <c r="D287" s="3">
-        <v>1.270192929</v>
+        <v>1.2514066589999999</v>
       </c>
       <c r="E287" s="3">
-        <v>1.4651605130000001</v>
+        <v>1.4443005980000001</v>
       </c>
       <c r="F287" s="3">
-        <v>15.244154200000001</v>
+        <v>15.397119930000001</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C288" s="3">
-        <v>1.0589394299999999</v>
+        <v>1.023847803</v>
       </c>
       <c r="D288" s="3">
-        <v>1.2514066589999999</v>
+        <v>1.207746698</v>
       </c>
       <c r="E288" s="3">
-        <v>1.4443005980000001</v>
+        <v>1.3942841349999999</v>
       </c>
       <c r="F288" s="3">
-        <v>15.397119930000001</v>
+        <v>15.33584538</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C289" s="3">
-        <v>1.023847803</v>
+        <v>1.041444187</v>
       </c>
       <c r="D289" s="3">
-        <v>1.207746698</v>
+        <v>1.23589935</v>
       </c>
       <c r="E289" s="3">
-        <v>1.3942841349999999</v>
+        <v>1.4272923529999999</v>
       </c>
       <c r="F289" s="3">
-        <v>15.33584538</v>
+        <v>15.610015730000001</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C290" s="3">
-        <v>1.041444187</v>
+        <v>1.0467009730000001</v>
       </c>
       <c r="D290" s="3">
-        <v>1.23589935</v>
+        <v>1.2350892979999999</v>
       </c>
       <c r="E290" s="3">
-        <v>1.4272923529999999</v>
+        <v>1.4325978130000001</v>
       </c>
       <c r="F290" s="3">
-        <v>15.610015730000001</v>
+        <v>15.622224259999999</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C291" s="3">
-        <v>1.0467009730000001</v>
+        <v>1.0555844480000001</v>
       </c>
       <c r="D291" s="3">
-        <v>1.2350892979999999</v>
+        <v>1.253902206</v>
       </c>
       <c r="E291" s="3">
-        <v>1.4325978130000001</v>
+        <v>1.4509090600000001</v>
       </c>
       <c r="F291" s="3">
-        <v>15.622224259999999</v>
+        <v>15.7637737</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C292" s="3">
-        <v>1.0555844480000001</v>
+        <v>1.047282558</v>
       </c>
       <c r="D292" s="3">
-        <v>1.253902206</v>
+        <v>1.2422425130000001</v>
       </c>
       <c r="E292" s="3">
-        <v>1.4509090600000001</v>
+        <v>1.4363873140000001</v>
       </c>
       <c r="F292" s="3">
-        <v>15.7637737</v>
+        <v>15.661384610000001</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C293" s="3">
-        <v>1.047282558</v>
+        <v>1.070113568</v>
       </c>
       <c r="D293" s="3">
-        <v>1.2422425130000001</v>
+        <v>1.2657921990000001</v>
       </c>
       <c r="E293" s="3">
-        <v>1.4363873140000001</v>
+        <v>1.4633865260000001</v>
       </c>
       <c r="F293" s="3">
-        <v>15.661384610000001</v>
+        <v>15.5346572</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C294" s="3">
-        <v>1.070113568</v>
+        <v>1.0639995209999999</v>
       </c>
       <c r="D294" s="3">
-        <v>1.2657921990000001</v>
+        <v>1.259699431</v>
       </c>
       <c r="E294" s="3">
-        <v>1.4633865260000001</v>
+        <v>1.4580153490000001</v>
       </c>
       <c r="F294" s="3">
-        <v>15.5346572</v>
+        <v>15.63927945</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C295" s="3">
-        <v>1.0639995209999999</v>
+        <v>1.036313381</v>
       </c>
       <c r="D295" s="3">
-        <v>1.259699431</v>
+        <v>1.235750312</v>
       </c>
       <c r="E295" s="3">
-        <v>1.4580153490000001</v>
+        <v>1.431038037</v>
       </c>
       <c r="F295" s="3">
-        <v>15.63927945</v>
+        <v>15.971052220000001</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C296" s="3">
-        <v>1.036313381</v>
+        <v>1.086119726</v>
       </c>
       <c r="D296" s="3">
-        <v>1.235750312</v>
+        <v>1.2755675930000001</v>
       </c>
       <c r="E296" s="3">
-        <v>1.431038037</v>
+        <v>1.467059721</v>
       </c>
       <c r="F296" s="3">
-        <v>15.971052220000001</v>
+        <v>14.93217595</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C297" s="3">
-        <v>1.086119726</v>
+        <v>1.097676828</v>
       </c>
       <c r="D297" s="3">
-        <v>1.2755675930000001</v>
+        <v>1.2998438000000001</v>
       </c>
       <c r="E297" s="3">
-        <v>1.467059721</v>
+        <v>1.4972304080000001</v>
       </c>
       <c r="F297" s="3">
-        <v>14.93217595</v>
+        <v>15.369292079999999</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C298" s="3">
-        <v>1.097676828</v>
+        <v>1.0432722539999999</v>
       </c>
       <c r="D298" s="3">
-        <v>1.2998438000000001</v>
+        <v>1.239301472</v>
       </c>
       <c r="E298" s="3">
-        <v>1.4972304080000001</v>
+        <v>1.43136036</v>
       </c>
       <c r="F298" s="3">
-        <v>15.369292079999999</v>
+        <v>15.657534310000001</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C299" s="3">
-        <v>1.0432722539999999</v>
+        <v>1.068461128</v>
       </c>
       <c r="D299" s="3">
-        <v>1.239301472</v>
+        <v>1.2663770009999999</v>
       </c>
       <c r="E299" s="3">
-        <v>1.43136036</v>
+        <v>1.4618640620000001</v>
       </c>
       <c r="F299" s="3">
-        <v>15.657534310000001</v>
+        <v>15.53261522</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C300" s="3">
-        <v>1.068461128</v>
+        <v>1.02076422</v>
       </c>
       <c r="D300" s="3">
-        <v>1.2663770009999999</v>
+        <v>1.2119567010000001</v>
       </c>
       <c r="E300" s="3">
-        <v>1.4618640620000001</v>
+        <v>1.401291099</v>
       </c>
       <c r="F300" s="3">
-        <v>15.53261522</v>
+        <v>15.69886445</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C301" s="3">
-        <v>1.02076422</v>
+        <v>1.053519651</v>
       </c>
       <c r="D301" s="3">
-        <v>1.2119567010000001</v>
+        <v>1.2441855749999999</v>
       </c>
       <c r="E301" s="3">
-        <v>1.401291099</v>
+        <v>1.4394790820000001</v>
       </c>
       <c r="F301" s="3">
-        <v>15.69886445</v>
+        <v>15.51052505</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C302" s="3">
-        <v>1.053519651</v>
+        <v>1.0381013050000001</v>
       </c>
       <c r="D302" s="3">
-        <v>1.2441855749999999</v>
+        <v>1.228581382</v>
       </c>
       <c r="E302" s="3">
-        <v>1.4394790820000001</v>
+        <v>1.4180293390000001</v>
       </c>
       <c r="F302" s="3">
-        <v>15.51052505</v>
+        <v>15.46206214</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C303" s="3">
-        <v>1.0381013050000001</v>
+        <v>1.0561653010000001</v>
       </c>
       <c r="D303" s="3">
-        <v>1.228581382</v>
+        <v>1.2473605270000001</v>
       </c>
       <c r="E303" s="3">
-        <v>1.4180293390000001</v>
+        <v>1.442718902</v>
       </c>
       <c r="F303" s="3">
-        <v>15.46206214</v>
+        <v>15.49486267</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C304" s="3">
-        <v>1.0561653010000001</v>
+        <v>1.065537194</v>
       </c>
       <c r="D304" s="3">
-        <v>1.2473605270000001</v>
+        <v>1.265698687</v>
       </c>
       <c r="E304" s="3">
-        <v>1.442718902</v>
+        <v>1.4635469350000001</v>
       </c>
       <c r="F304" s="3">
-        <v>15.49486267</v>
+        <v>15.72292618</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C305" s="3">
-        <v>1.065537194</v>
+        <v>1.025805039</v>
       </c>
       <c r="D305" s="3">
-        <v>1.265698687</v>
+        <v>1.2164475480000001</v>
       </c>
       <c r="E305" s="3">
-        <v>1.4635469350000001</v>
+        <v>1.4073091230000001</v>
       </c>
       <c r="F305" s="3">
-        <v>15.72292618</v>
+        <v>15.68107416</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C306" s="3">
-        <v>1.025805039</v>
+        <v>0.98943272039999997</v>
       </c>
       <c r="D306" s="3">
-        <v>1.2164475480000001</v>
+        <v>1.164824656</v>
       </c>
       <c r="E306" s="3">
-        <v>1.4073091230000001</v>
+        <v>1.3364491759999999</v>
       </c>
       <c r="F306" s="3">
-        <v>15.68107416</v>
+        <v>14.89565206</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C307" s="3">
-        <v>0.98943272039999997</v>
+        <v>1.0400477539999999</v>
       </c>
       <c r="D307" s="3">
-        <v>1.164824656</v>
+        <v>1.222253415</v>
       </c>
       <c r="E307" s="3">
-        <v>1.3364491759999999</v>
+        <v>1.4079692450000001</v>
       </c>
       <c r="F307" s="3">
-        <v>14.89565206</v>
+        <v>15.05094959</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C308" s="3">
-        <v>1.0400477539999999</v>
+        <v>1.019166464</v>
       </c>
       <c r="D308" s="3">
-        <v>1.222253415</v>
+        <v>1.2060368640000001</v>
       </c>
       <c r="E308" s="3">
-        <v>1.4079692450000001</v>
+        <v>1.390050896</v>
       </c>
       <c r="F308" s="3">
-        <v>15.05094959</v>
+        <v>15.37616482</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C309" s="3">
-        <v>1.019166464</v>
+        <v>1.0500051109999999</v>
       </c>
       <c r="D309" s="3">
-        <v>1.2060368640000001</v>
+        <v>1.236681248</v>
       </c>
       <c r="E309" s="3">
-        <v>1.390050896</v>
+        <v>1.43010394</v>
       </c>
       <c r="F309" s="3">
-        <v>15.37616482</v>
+        <v>15.36769599</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C310" s="3">
-        <v>1.0500051109999999</v>
+        <v>1.058079271</v>
       </c>
       <c r="D310" s="3">
-        <v>1.236681248</v>
+        <v>1.2438410129999999</v>
       </c>
       <c r="E310" s="3">
-        <v>1.43010394</v>
+        <v>1.430711074</v>
       </c>
       <c r="F310" s="3">
-        <v>15.36769599</v>
+        <v>14.979076879999999</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C311" s="3">
-        <v>1.058079271</v>
+        <v>1.0408103609999999</v>
       </c>
       <c r="D311" s="3">
-        <v>1.2438410129999999</v>
+        <v>1.2277650760000001</v>
       </c>
       <c r="E311" s="3">
-        <v>1.430711074</v>
+        <v>1.4119359730000001</v>
       </c>
       <c r="F311" s="3">
-        <v>14.979076879999999</v>
+        <v>15.113869060000001</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C312" s="3">
-        <v>1.0408103609999999</v>
+        <v>1.0618314369999999</v>
       </c>
       <c r="D312" s="3">
-        <v>1.2277650760000001</v>
+        <v>1.2461296120000001</v>
       </c>
       <c r="E312" s="3">
-        <v>1.4119359730000001</v>
+        <v>1.4276841140000001</v>
       </c>
       <c r="F312" s="3">
-        <v>15.113869060000001</v>
+        <v>14.67955956</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C313" s="3">
-        <v>1.0618314369999999</v>
+        <v>1.0414072489999999</v>
       </c>
       <c r="D313" s="3">
-        <v>1.2461296120000001</v>
+        <v>1.2225171050000001</v>
       </c>
       <c r="E313" s="3">
-        <v>1.4276841140000001</v>
+        <v>1.3993135219999999</v>
       </c>
       <c r="F313" s="3">
-        <v>14.67955956</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" s="3">
-        <v>1.0414072489999999</v>
-      </c>
-      <c r="D314" s="3">
-        <v>1.2225171050000001</v>
-      </c>
-      <c r="E314" s="3">
-        <v>1.3993135219999999</v>
-      </c>
-      <c r="F314" s="3">
         <v>14.638088570000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
